--- a/excel/NSE_Stock_Master_DataLake.xlsx
+++ b/excel/NSE_Stock_Master_DataLake.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI6"/>
+  <dimension ref="A1:CI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2090,8 +2090,6 @@
       <c r="AM6" t="n">
         <v>1189.9993</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
         <v>10073656000512</v>
       </c>
@@ -2194,16 +2192,12 @@
       <c r="BS6" t="n">
         <v>233.261</v>
       </c>
-      <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="n">
         <v>2197605449728</v>
       </c>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
       <c r="BX6" t="n">
         <v>1638509182976</v>
       </c>
-      <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="n">
         <v>233.246</v>
       </c>
@@ -2213,7 +2207,6 @@
       <c r="CB6" t="n">
         <v>0.18731001</v>
       </c>
-      <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="n">
         <v>-23252623360</v>
       </c>
@@ -2223,9 +2216,1359 @@
       <c r="CF6" t="n">
         <v>0.274</v>
       </c>
-      <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="inlineStr"/>
       <c r="CI6" t="n">
+        <v>0.37491</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>347362</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1310</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26.110891</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>20.582012</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15838421</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17748419674112</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1203.15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1608.8</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.9188768</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1327.6465</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1441.7959</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.00756401</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>20523773853696</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.07343</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>6178648529</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.49667</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.27192</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>605.573</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>2.1658</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.06658268000000001</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>RELIANCE INDUSTRIES LTD</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1311.55</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1603.6389</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>1.83784</v>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ7" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>2147900063744</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>158.729</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1562509967360</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3575249895424</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>9249379844096</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>37.464</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>683.526</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.08479</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>-416127483904</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>1797530058752</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.34339002</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.16893</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.11306</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>612724</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4453</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4465</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4453</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4465</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.42810002</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34.01301</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>28.708265</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2325120</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16084219461632</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>3563</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>4592.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6.467526</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>4170.453</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>4102.5327</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.012768675</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>15705927843840</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.19076</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1002644413</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.7178399600000001</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.16514999</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>280.521</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>15.847299</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>154.68</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.22031903</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>TATA CONSULTANCY SERV LT</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Limited</t>
+        </is>
+      </c>
+      <c r="BJ8" t="n">
+        <v>4445.5</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>5710</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>4508.0454</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.30233</v>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ8" t="n">
+        <v>44</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>477630005248</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>132.012</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>651870011392</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>90469998592</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>2486920019968</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>8.836</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>685.788</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.24511999</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.46772</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>306369986560</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>443359985664</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.39264</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.26212</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.24067</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>206758</v>
+      </c>
+      <c r="K9" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1857</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1844</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1857</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1844</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21.008038</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16.689299</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18711555</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>14187713527808</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1363.55</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1879.95</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>5.1385007</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1733.471</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1614.3867</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>18288729915392</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.25056</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>7578068585</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>7644859904</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.01671</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.51792</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>7685640192</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>632.437</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>2.9344423</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>88.34</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.12407637</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>HDFC BANK LTD</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1855.85</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1948.5775</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ9" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>2663853850624</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>349.683</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6660388552704</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>2761061040128</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>363.255</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>-1467762343936</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.32936</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>24893</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1618</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1618</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3868</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>77.52789</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>33.387047</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5772020</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9557012119552</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>6.1468463</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1625.3</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1455.7292</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.004952487</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>11607764631552</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2563438641</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>5691039744</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.55272996</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.31295002</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>5981170176</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>150.527</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>10.61504</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.5964930000000001</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>BHARTI AIRTEL LIMITED</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1597.85</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2070</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1120</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1836</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.61111</v>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ10" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>125100998656</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>21.621</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>722990989312</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2255408070656</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>1554783010816</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>204.474</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>270.184</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.12929</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>39372623872</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>856934973440</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.63526</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.46501</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.26152</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>187765</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>20.080853</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18.071215</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13949251</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9376868859904</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>970.15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1362.35</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5.722805</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1272.428</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1189.9993</v>
+      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>10073656000512</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.28909</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>7019272418</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>7056909824</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.02172</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.5452399999999999</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>7098070016</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>397.441</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>3.3432634</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.30641043</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>ICICI BANK LTD.</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1328.75</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1463.475</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1458</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>1643846303744</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>233.261</v>
+      </c>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="n">
+        <v>2197605449728</v>
+      </c>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="n">
+        <v>1638509182976</v>
+      </c>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="n">
+        <v>233.246</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.18731001</v>
+      </c>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="n">
+        <v>-23252623360</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="n">
         <v>0.37491</v>
       </c>
     </row>

--- a/excel/NSE_Stock_Master_DataLake.xlsx
+++ b/excel/NSE_Stock_Master_DataLake.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI11"/>
+  <dimension ref="A1:CI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3433,8 +3433,6 @@
       <c r="AM11" t="n">
         <v>1189.9993</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
         <v>10073656000512</v>
       </c>
@@ -3537,16 +3535,12 @@
       <c r="BS11" t="n">
         <v>233.261</v>
       </c>
-      <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="n">
         <v>2197605449728</v>
       </c>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
       <c r="BX11" t="n">
         <v>1638509182976</v>
       </c>
-      <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="n">
         <v>233.246</v>
       </c>
@@ -3556,7 +3550,6 @@
       <c r="CB11" t="n">
         <v>0.18731001</v>
       </c>
-      <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="n">
         <v>-23252623360</v>
       </c>
@@ -3566,9 +3559,1359 @@
       <c r="CF11" t="n">
         <v>0.274</v>
       </c>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
       <c r="CI11" t="n">
+        <v>0.37491</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>347362</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1310</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26.110891</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>20.582012</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15838421</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17748419674112</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1203.15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1608.8</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.9188768</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1327.6465</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1441.7959</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.00756401</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>20523773853696</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.07343</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>6178648529</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.49667</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.27192</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>605.573</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2.1658</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.06658268000000001</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>RELIANCE INDUSTRIES LTD</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1311.55</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1603.6389</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1.83784</v>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ12" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>2147900063744</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>158.729</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>1562509967360</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3575249895424</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>9249379844096</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>37.464</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>683.526</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.08479</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>-416127483904</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1797530058752</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.34339002</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.16893</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.11306</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>612724</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4453</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4465</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4453</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4465</v>
+      </c>
+      <c r="U13" t="n">
+        <v>40</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.42810002</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34.01301</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>28.708265</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2325120</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16084219461632</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3563</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4592.25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>6.467526</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>4170.453</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4102.5327</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.012768675</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>15705927843840</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.19076</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1002644413</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.7178399600000001</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.16514999</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>280.521</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>15.847299</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>154.68</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.22031903</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>TATA CONSULTANCY SERV LT</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Limited</t>
+        </is>
+      </c>
+      <c r="BJ13" t="n">
+        <v>4445.5</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>5710</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>4508.0454</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.30233</v>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ13" t="n">
+        <v>44</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>477630005248</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>132.012</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>651870011392</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>90469998592</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>2486920019968</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>8.836</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>685.788</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0.24511999</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.46772</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>306369986560</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>443359985664</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.39264</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.26212</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.24067</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>206758</v>
+      </c>
+      <c r="K14" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1857</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1844</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1857</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1844</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21.008038</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16.689299</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>18711555</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14187713527808</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1363.55</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1879.95</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>5.1385007</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1733.471</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1614.3867</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>18288729915392</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.25056</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>7578068585</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>7644859904</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.01671</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.51792</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>7685640192</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>632.437</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>2.9344423</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>88.34</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.12407637</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>HDFC BANK LTD</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1855.85</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1948.5775</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ14" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>2663853850624</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>349.683</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6660388552704</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>2761061040128</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>363.255</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>-1467762343936</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.32936</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>24893</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1618</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1618</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="U15" t="n">
+        <v>8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.3868</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>77.52789</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>33.387047</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5772020</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9557012119552</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>6.1468463</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1625.3</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1455.7292</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.004952487</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>11607764631552</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>2563438641</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>5691039744</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.55272996</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.31295002</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>5981170176</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>150.527</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>10.61504</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.5964930000000001</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>BHARTI AIRTEL LIMITED</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1597.85</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2070</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1120</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1836</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>1.61111</v>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ15" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>125100998656</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>21.621</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>722990989312</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2255408070656</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>1554783010816</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>204.474</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>270.184</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.12929</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>39372623872</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>856934973440</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.63526</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.46501</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.26152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>187765</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>10</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>20.080853</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>18.071215</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13949251</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9376868859904</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>970.15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1362.35</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>5.722805</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1272.428</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1189.9993</v>
+      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="n">
+        <v>10073656000512</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.28909</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>7019272418</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>7056909824</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.02172</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.5452399999999999</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>7098070016</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>397.441</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>3.3432634</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.30641043</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>ICICI BANK LTD.</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1328.75</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1463.475</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1458</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>1643846303744</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>233.261</v>
+      </c>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="n">
+        <v>2197605449728</v>
+      </c>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="n">
+        <v>1638509182976</v>
+      </c>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="n">
+        <v>233.246</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.18731001</v>
+      </c>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="n">
+        <v>-23252623360</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="n">
         <v>0.37491</v>
       </c>
     </row>

--- a/excel/NSE_Stock_Master_DataLake.xlsx
+++ b/excel/NSE_Stock_Master_DataLake.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI16"/>
+  <dimension ref="A1:CI29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4776,8 +4776,6 @@
       <c r="AM16" t="n">
         <v>1189.9993</v>
       </c>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="n">
         <v>10073656000512</v>
       </c>
@@ -4880,16 +4878,12 @@
       <c r="BS16" t="n">
         <v>233.261</v>
       </c>
-      <c r="BT16" t="inlineStr"/>
       <c r="BU16" t="n">
         <v>2197605449728</v>
       </c>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
       <c r="BX16" t="n">
         <v>1638509182976</v>
       </c>
-      <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="n">
         <v>233.246</v>
       </c>
@@ -4899,7 +4893,6 @@
       <c r="CB16" t="n">
         <v>0.18731001</v>
       </c>
-      <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="n">
         <v>-23252623360</v>
       </c>
@@ -4909,9 +4902,3479 @@
       <c r="CF16" t="n">
         <v>0.274</v>
       </c>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
       <c r="CI16" t="n">
+        <v>0.37491</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>43000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1801</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1801</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="U17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.2928</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>39.21882</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>32.61039</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1901203</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>4330430660608</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1208.55</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1960.35</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>8.607882</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1839.705</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1675.1412</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>4147643416576</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.21972999</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1035114634</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.55097</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.26382</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>288.721</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6.25119</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.4538827</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>SUN PHARMACEUTICAL IND L</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1804.85</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>2450</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2047.1082</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2094</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1.75676</v>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ17" t="n">
+        <v>37</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>201221898240</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>84.059</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>138017406976</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>25719500800</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>503077404672</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>3.707</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>209.894</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0.08541000999999999</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.16771</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>77989175296</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>127154700288</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0.7760500299999999</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.27435</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.23963</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6935</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6935</v>
+      </c>
+      <c r="U18" t="n">
+        <v>36</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.14479999</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>27.547754</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>20.147312</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1105976</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>4241877106688</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6187.8</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7830</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>12.393681</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>6913.049</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>6954.6475</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.005255168</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>6715976187904</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.44922</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>258677249</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>618489984</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.54955</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.25113</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>619225024</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1403.263</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>4.881694</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>248.67</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>-0.06066984</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>BAJAJ FINANCE LIMITED</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Limited</t>
+        </is>
+      </c>
+      <c r="BJ18" t="n">
+        <v>6850.3</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>5700</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>8012.645</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>8120</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ18" t="n">
+        <v>31</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>124034998272</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>200.516</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2581427650560</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>342261301248</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>290.321</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>554.982</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0.04145</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.20686</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>-729231917056</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.93649</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.59731996</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>91496</v>
+      </c>
+      <c r="K19" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="N19" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="R19" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8.635382</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17.781937</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3725041074176</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>804.3</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.83946526</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>710.0359999999999</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3581168058368</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.07609</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2262900518</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>508503008</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.09694</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.17828</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>4901369856</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>221.588</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.4297886</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.5886122</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>TATA MOTORS DVR  A  ORD</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>Tata Motors Limited</t>
+        </is>
+      </c>
+      <c r="BJ19" t="n">
+        <v>760</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>203</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>203</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>203</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>203</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>592166387712</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>154.522</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>511051988992</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1120443695104</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>4437397471232</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>117.15</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1157.912</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0.44472998</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0.11517</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0.09727000399999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>20074</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="N20" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="O20" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="S20" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="T20" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.44419998</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>18.765871</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14.450799</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15840758</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>3582919442432</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>280.85</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>448.45</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.9508511</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>398.172</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>380.302</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.02776649</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>5970720718848</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.120179996</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>4494113853</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>9696669696</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.5267100300000001</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.36269</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>9789920256</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>173.535</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2.1292534</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.28611207</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>NTPC LTD</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>NTPC Limited</t>
+        </is>
+      </c>
+      <c r="BJ20" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>280</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>446.2</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>460</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>1.76923</v>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ20" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>78724300800</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>8.119</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>502551609344</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2420094795776</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>1836593053696</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>139.959</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>189.407</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0.04476</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.13656001</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>-149665693696</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>470758195200</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0.42235002</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0.27363002</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0.16645001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>104633</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1160</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1160</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13.19245</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.281429</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>9164065</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>3670375661568</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>995.7</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1339.65</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5.4975696</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1163.149</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1163.6274</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.0008573388</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>5027766730752</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.41832</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>2739610087</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3094629888</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.02031</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.68768</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>3098540032</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>557.7140000000001</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2.1239383</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.060949445</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>AXIS BANK LIMITED</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>Axis Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1184.55</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1590</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1216</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>1363.0714</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1360</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>1.53659</v>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ21" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>892193079296</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>288.587</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2252174524416</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>667636072448</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>216.263</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0.01918</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0.17764999</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>-974622818304</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.47516</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>18228</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11200</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11121</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>11200</v>
+      </c>
+      <c r="S22" t="n">
+        <v>11121</v>
+      </c>
+      <c r="T22" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="U22" t="n">
+        <v>125</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.28030002</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>25.380554</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>20.232302</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>545978</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>3558397706240</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9737.65</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13680</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.4504745</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>11713.743</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>12249.159</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>3523508436992</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.09656000000000001</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>131416090</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.30049</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2834.796</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.9925098</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>-0.176</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>445.93</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>521.85</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.07363105</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>125</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>MARUTI SUZUKI INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Limited</t>
+        </is>
+      </c>
+      <c r="BJ22" t="n">
+        <v>11317.95</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>16600</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>10800</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>13347.477</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>13415.5</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>1.80952</v>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ22" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>36439998464</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>115.903</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>199318994944</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1584000000</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>1452125978624</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>4618.617</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0.086339995</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.18101</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>24424624128</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>138483007488</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0.2915</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0.09648</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>116000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1775.15</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1773.9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1761</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1785.05</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1775.15</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1773.9</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1761</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1785.05</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.0182</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>16.207132</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17.089087</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2595332</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2595332</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>4303861</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>3906283</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>3906283</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>3532860686336</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1543.85</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1942</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>4.716181</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1781.388</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1768.0422</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>3842623668224</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.29495</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1437265962</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1988160000</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.28878</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.45479</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1992770048</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>740.965</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2.3981564</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>109.64</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>-0.036387324</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>KOTAK MAHINDRA BANK LTD</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ23" t="n">
+        <v>1776.95</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1993.825</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>2007.5</v>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BQ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>461008404480</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>231.873</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>770709520384</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>749093584896</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>376.837</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0.0298</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0.16479999</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>-509083713536</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0.35261002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>260000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3071.6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3075.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3065.95</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3099</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3071.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3075.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3065.95</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3099</v>
+      </c>
+      <c r="U24" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1720137600</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2086</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>30.395649</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>25.065252</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2688702</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2688702</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>3651914</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>3451597</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>3451597</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>3683574611968</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1575</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>3222.1</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.4987533</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2964.75</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2626.7212</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>4430435450880</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.08049000000000001</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>839108798</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1198690048</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.22969</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.5389</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1198690048</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>632.146</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4.861219</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.85994434</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1720137600</v>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>MAHINDRA &amp; MAHINDRA LTD</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>Mahindra &amp; Mahindra Limited</t>
+        </is>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3073</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>3700</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2709</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>3418.111</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>3430</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ24" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>302525415424</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>271.257</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>268166807552</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1192247558144</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>1474164948992</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>145.663</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>1322.415</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0.06308999999999999</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0.17017001</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>5433699840</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>-29359599616</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0.40423</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0.18191</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0.16823</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>347362</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1310</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>26.110891</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>20.582012</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15838421</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17748419674112</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1203.15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1608.8</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.9188768</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1327.6465</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1441.7959</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.00756401</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>20523773853696</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.07343</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>6178648529</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.49667</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.27192</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>605.573</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>2.1658</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0.06658268000000001</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>RELIANCE INDUSTRIES LTD</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ25" t="n">
+        <v>1311.55</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1603.6389</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>1.83784</v>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ25" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>2147900063744</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>158.729</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>1562509967360</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>3575249895424</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>9249379844096</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>37.464</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>683.526</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0.08479</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>-416127483904</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>1797530058752</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0.34339002</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0.16893</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0.11306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>612724</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4453</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4465</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4453</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4465</v>
+      </c>
+      <c r="U26" t="n">
+        <v>40</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.42810002</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>34.01301</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>28.708265</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2325120</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>16084219461632</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3563</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>4592.25</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>6.467526</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>4170.453</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>4102.5327</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.012768675</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>15705927843840</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.19076</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1002644413</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.7178399600000001</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.16514999</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>280.521</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>15.847299</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>154.68</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.22031903</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>TATA CONSULTANCY SERV LT</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Limited</t>
+        </is>
+      </c>
+      <c r="BJ26" t="n">
+        <v>4445.5</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>5710</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>4508.0454</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.30233</v>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ26" t="n">
+        <v>44</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>477630005248</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>132.012</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>651870011392</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>90469998592</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>2486920019968</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>8.836</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>685.788</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0.24511999</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0.46772</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>306369986560</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>443359985664</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0.39264</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0.26212</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0.24067</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>206758</v>
+      </c>
+      <c r="K27" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1857</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1844</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1857</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1844</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>21.008038</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>16.689299</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>18711555</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>14187713527808</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1363.55</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1879.95</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>5.1385007</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1733.471</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1614.3867</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>18288729915392</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.25056</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>7578068585</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>7644859904</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.01671</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.51792</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>7685640192</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>632.437</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>2.9344423</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>88.34</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0.12407637</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>HDFC BANK LTD</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ27" t="n">
+        <v>1855.85</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1948.5775</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ27" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>2663853850624</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>349.683</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>6660388552704</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>2761061040128</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>363.255</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>-1467762343936</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0.32936</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>24893</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1618</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1618</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="U28" t="n">
+        <v>8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.3868</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>77.52789</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>33.387047</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5772020</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>9557012119552</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>6.1468463</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1625.3</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1455.7292</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.004952487</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>11607764631552</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>2563438641</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>5691039744</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.55272996</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.31295002</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>5981170176</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>150.527</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>10.61504</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0.5964930000000001</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>BHARTI AIRTEL LIMITED</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1597.85</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>2070</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1120</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1836</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>1.61111</v>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ28" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>125100998656</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>21.621</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>722990989312</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>2255408070656</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>1554783010816</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>204.474</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>270.184</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>0.12929</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>39372623872</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>856934973440</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>0.63526</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>0.46501</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>0.26152</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>187765</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>20.080853</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>18.071215</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>13949251</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>9376868859904</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>970.15</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1362.35</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>5.722805</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1272.428</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1189.9993</v>
+      </c>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v>10073656000512</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.28909</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>7019272418</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>7056909824</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.02172</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.5452399999999999</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>7098070016</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>397.441</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>3.3432634</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0.30641043</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>ICICI BANK LTD.</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ29" t="n">
+        <v>1328.75</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1463.475</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1458</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ29" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>1643846303744</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>233.261</v>
+      </c>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="n">
+        <v>2197605449728</v>
+      </c>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="n">
+        <v>1638509182976</v>
+      </c>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="n">
+        <v>233.246</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0.18731001</v>
+      </c>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="n">
+        <v>-23252623360</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="inlineStr"/>
+      <c r="CI29" t="n">
         <v>0.37491</v>
       </c>
     </row>

--- a/excel/NSE_Stock_Master_DataLake.xlsx
+++ b/excel/NSE_Stock_Master_DataLake.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI29"/>
+  <dimension ref="A1:CI48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8239,8 +8239,6 @@
       <c r="AM29" t="n">
         <v>1189.9993</v>
       </c>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="n">
         <v>10073656000512</v>
       </c>
@@ -8343,16 +8341,12 @@
       <c r="BS29" t="n">
         <v>233.261</v>
       </c>
-      <c r="BT29" t="inlineStr"/>
       <c r="BU29" t="n">
         <v>2197605449728</v>
       </c>
-      <c r="BV29" t="inlineStr"/>
-      <c r="BW29" t="inlineStr"/>
       <c r="BX29" t="n">
         <v>1638509182976</v>
       </c>
-      <c r="BY29" t="inlineStr"/>
       <c r="BZ29" t="n">
         <v>233.246</v>
       </c>
@@ -8362,7 +8356,6 @@
       <c r="CB29" t="n">
         <v>0.18731001</v>
       </c>
-      <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="n">
         <v>-23252623360</v>
       </c>
@@ -8372,10 +8365,4886 @@
       <c r="CF29" t="n">
         <v>0.274</v>
       </c>
-      <c r="CG29" t="inlineStr"/>
-      <c r="CH29" t="inlineStr"/>
       <c r="CI29" t="n">
         <v>0.37491</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>347362</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1310</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>26.110891</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>20.582012</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15838421</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>17748419674112</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1203.15</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1608.8</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.9188768</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1327.6465</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1441.7959</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.00756401</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>20523773853696</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.07343</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>6178648529</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.49667</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.27192</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>605.573</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>2.1658</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0.06658268000000001</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>RELIANCE INDUSTRIES LTD</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ30" t="n">
+        <v>1311.55</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1603.6389</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>1.83784</v>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ30" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>2147900063744</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>158.729</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>1562509967360</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>3575249895424</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>9249379844096</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>37.464</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>683.526</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>0.08479</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>-416127483904</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>1797530058752</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0.34339002</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>0.16893</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0.11306</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>612724</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4453</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4465</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4453</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4465</v>
+      </c>
+      <c r="U31" t="n">
+        <v>40</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.42810002</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>34.01301</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>28.708265</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2325120</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>16084219461632</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3563</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>4592.25</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>6.467526</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>4170.453</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>4102.5327</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.012768675</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>15705927843840</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.19076</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1002644413</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.7178399600000001</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.16514999</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>280.521</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>15.847299</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>154.68</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0.22031903</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>TATA CONSULTANCY SERV LT</t>
+        </is>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Limited</t>
+        </is>
+      </c>
+      <c r="BJ31" t="n">
+        <v>4445.5</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>5710</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>4508.0454</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.30233</v>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ31" t="n">
+        <v>44</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>477630005248</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>132.012</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>651870011392</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>90469998592</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>2486920019968</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>8.836</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>685.788</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>0.24511999</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>0.46772</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>306369986560</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>443359985664</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>0.39264</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>0.26212</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>0.24067</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>206758</v>
+      </c>
+      <c r="K32" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1857</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1844</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1857</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1844</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>21.008038</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>16.689299</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>18711555</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>14187713527808</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1363.55</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1879.95</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>5.1385007</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1733.471</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1614.3867</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>18288729915392</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.25056</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>7578068585</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>7644859904</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.01671</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.51792</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>7685640192</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>632.437</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>2.9344423</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>88.34</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0.12407637</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>HDFC BANK LTD</t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ32" t="n">
+        <v>1855.85</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1948.5775</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ32" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>2663853850624</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>349.683</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>6660388552704</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>2761061040128</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>363.255</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="CB32" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>-1467762343936</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>0.32936</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>24893</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1618</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1618</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="U33" t="n">
+        <v>8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.3868</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>77.52789</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>33.387047</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>5772020</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9557012119552</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>6.1468463</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1625.3</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1455.7292</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.004952487</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>11607764631552</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2563438641</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>5691039744</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.55272996</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.31295002</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>5981170176</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>150.527</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>10.61504</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0.5964930000000001</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG33" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>BHARTI AIRTEL LIMITED</t>
+        </is>
+      </c>
+      <c r="BI33" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="BJ33" t="n">
+        <v>1597.85</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>2070</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1120</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1836</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>1.61111</v>
+      </c>
+      <c r="BP33" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ33" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>125100998656</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>21.621</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>722990989312</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>2255408070656</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>1554783010816</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>204.474</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>270.184</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>0.12929</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>39372623872</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>856934973440</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>0.63526</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>0.46501</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>0.26152</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>187765</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>10</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>20.080853</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>18.071215</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13949251</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9376868859904</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>970.15</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1362.35</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>5.722805</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1272.428</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1189.9993</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>10073656000512</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.28909</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>7019272418</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>7056909824</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.02172</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.5452399999999999</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>7098070016</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>397.441</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>3.3432634</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0.30641043</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF34" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG34" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>ICICI BANK LTD.</t>
+        </is>
+      </c>
+      <c r="BI34" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ34" t="n">
+        <v>1328.75</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1463.475</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1458</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="BP34" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ34" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>1643846303744</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>233.261</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2197605449728</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>1638509182976</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>233.246</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>0.18731001</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>-23252623360</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>0.37491</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>317788</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1934.85</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1932.8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1937.95</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1934.85</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1932.8</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1937.95</v>
+      </c>
+      <c r="U35" t="n">
+        <v>41</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.021300001</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1730160000</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.5924</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>29.498236</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>26.64253</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>3572577</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3572577</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>5886262</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>6268840</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>6268840</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7962600407040</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1358.35</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1991.45</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>422.73306</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1873.38</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1694.6937</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.0002532496</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>7960018812928</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.17159</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>3509357129</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>4142010112</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.15783</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>4142010112</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>737.96545</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0.29150152</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1730160000</v>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>INFOSYS LIMITED</t>
+        </is>
+      </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t>Infosys Limited</t>
+        </is>
+      </c>
+      <c r="BJ35" t="n">
+        <v>1922.4</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>2330</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1530</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>2110</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.14634</v>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>3488000000</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>4337999872</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>1051000000</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>18836000768</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>0.15253</v>
+      </c>
+      <c r="CB35" t="n">
+        <v>0.31404</v>
+      </c>
+      <c r="CC35" t="n">
+        <v>2286749952</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>3671000064</v>
+      </c>
+      <c r="CE35" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="CG35" t="n">
+        <v>0.29518</v>
+      </c>
+      <c r="CH35" t="n">
+        <v>0.23030001</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>0.21945</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>232296</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>865.45</v>
+      </c>
+      <c r="N36" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>857</v>
+      </c>
+      <c r="P36" t="n">
+        <v>875.45</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>865.45</v>
+      </c>
+      <c r="R36" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="S36" t="n">
+        <v>857</v>
+      </c>
+      <c r="T36" t="n">
+        <v>875.45</v>
+      </c>
+      <c r="U36" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1716336000</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.1709</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>10.775421</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10.36975</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>14518659</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>14518659</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>14648788</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>12385570</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12385570</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>7707748204544</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>600.65</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>912</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>2.2937837</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>816.803</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>811.4935</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.015829915</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>10402266087424</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.21295</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>3749854196</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>8924619776</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.58242</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.27388</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>8943219712</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>518.846</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.6645595</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>82.67</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0.40602362</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1716336000</v>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>STATE BANK OF INDIA</t>
+        </is>
+      </c>
+      <c r="BI36" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="BJ36" t="n">
+        <v>863.65</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1102</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>690</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>957.87805</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>990</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>1.85366</v>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ36" t="n">
+        <v>41</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>3549721001984</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>397.745</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>6066625052672</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>3360276873216</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>376.517</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>0.01121</v>
+      </c>
+      <c r="CB36" t="n">
+        <v>0.16746001</v>
+      </c>
+      <c r="CD36" t="n">
+        <v>-4326515802112</v>
+      </c>
+      <c r="CE36" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CI36" t="n">
+        <v>0.32476002</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>37312</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>470</v>
+      </c>
+      <c r="O37" t="n">
+        <v>467.7</v>
+      </c>
+      <c r="P37" t="n">
+        <v>474.95</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>470</v>
+      </c>
+      <c r="S37" t="n">
+        <v>467.7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>474.95</v>
+      </c>
+      <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1717459200</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.8373999600000001</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>28.658758</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>24.8055</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7549627</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7549627</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11628875</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>12536086</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12536086</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>5894463029248</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>399.35</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>7.8451347</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>483.81</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>462.1195</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.01604278</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>5713022156800</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.27337998</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>9137953176</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>12510799872</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.28409</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.46497002</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>12633900032</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>60.148</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>7.833178</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0.041330576</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1717459200</v>
+      </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF37" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>ITC LTD</t>
+        </is>
+      </c>
+      <c r="BI37" t="inlineStr">
+        <is>
+          <t>ITC Limited</t>
+        </is>
+      </c>
+      <c r="BJ37" t="n">
+        <v>471.15</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>595</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>420</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>540.9143</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>540</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BP37" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ37" t="n">
+        <v>35</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>190998691840</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>15.263</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>264712994816</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>3043399936</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>751352676352</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>60.164</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CB37" t="n">
+        <v>0.28645</v>
+      </c>
+      <c r="CC37" t="n">
+        <v>96529309696</v>
+      </c>
+      <c r="CD37" t="n">
+        <v>161626603520</v>
+      </c>
+      <c r="CE37" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="CG37" t="n">
+        <v>0.58748</v>
+      </c>
+      <c r="CH37" t="n">
+        <v>0.35232</v>
+      </c>
+      <c r="CI37" t="n">
+        <v>0.301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>19427</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2494.6</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2495</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2475</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2495.8</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2494.6</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2495</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2475</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2495.8</v>
+      </c>
+      <c r="U38" t="n">
+        <v>43</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1730851200</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.9608999499999999</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>56.824528</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>48.712643</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1308005</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1308005</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1699846</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1798437</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1798437</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>5836731580416</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2172.05</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>3035</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>9.352238</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>2594.495</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2541.5217</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>43</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.017237231</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>5724185296896</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.16452</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>873352575</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>2349590016</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.62259</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.18566</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>2349920000</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>216.156</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>11.490775</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>-0.007928431</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1730851200</v>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>HINDUSTAN UNILEVER LTD.</t>
+        </is>
+      </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Limited</t>
+        </is>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2483.8</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2057</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2863.6924</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>2870</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="BP38" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ38" t="n">
+        <v>39</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>128999997440</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>54.916</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>142339997696</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>16510000128</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>624099983360</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>265.67</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>0.10564999</v>
+      </c>
+      <c r="CB38" t="n">
+        <v>0.20233999</v>
+      </c>
+      <c r="CC38" t="n">
+        <v>74808745984</v>
+      </c>
+      <c r="CD38" t="n">
+        <v>117009997824</v>
+      </c>
+      <c r="CE38" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="CG38" t="n">
+        <v>0.51583</v>
+      </c>
+      <c r="CH38" t="n">
+        <v>0.22806999</v>
+      </c>
+      <c r="CI38" t="n">
+        <v>0.21694</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Insurance - Life</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>98661</v>
+      </c>
+      <c r="K39" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>976.9</v>
+      </c>
+      <c r="N39" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>992.95</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>976.9</v>
+      </c>
+      <c r="R39" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="S39" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>992.95</v>
+      </c>
+      <c r="U39" t="n">
+        <v>13</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.1523</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>14.97031</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>13.836587</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1328572</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1328572</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1278975</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>2018100</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>2018100</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>6219371118592</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>746.3</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1222</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.7168855</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>937.013</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>997.0507</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>5310828249088</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.05431</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>221374920</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>6325000192</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>6325320192</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>130.825</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>7.5157657</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>60.52</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0.27537453</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF39" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG39" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>LIFE INSURA CORP OF INDIA</t>
+        </is>
+      </c>
+      <c r="BI39" t="inlineStr">
+        <is>
+          <t>Life Insurance Corporation of India</t>
+        </is>
+      </c>
+      <c r="BJ39" t="n">
+        <v>983.25</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1385</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>870</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1162.3889</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1196.5</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="BP39" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ39" t="n">
+        <v>18</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>437919514624</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>69.236</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>515563913216</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>11200000</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>8675542958080</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>1254.09</v>
+      </c>
+      <c r="CE39" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="CF39" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="CG39" t="n">
+        <v>0.10604999</v>
+      </c>
+      <c r="CH39" t="n">
+        <v>0.05943</v>
+      </c>
+      <c r="CI39" t="n">
+        <v>0.06021</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>HDFC.NS</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>86400</v>
+      </c>
+      <c r="BF40" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="BG40" t="inlineStr">
+        <is>
+          <t>HDFC.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1924</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1926</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1915.3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1924</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1926</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1915.3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="U41" t="n">
+        <v>48</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1729555200</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>31.056372</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>27.420788</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2250378</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2250378</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2576384</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>3118916</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>3118916</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>5208056266752</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>381.43082</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1841.927</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1619.4187</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.00033523908</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>5205512945664</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.14677</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1009674174</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>2708720128</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.61319</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.25531998</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>2708720128</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>633.5090300000001</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0.3980223</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1729555200</v>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF41" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG41" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>HCL TECHNOLOGIES LTD</t>
+        </is>
+      </c>
+      <c r="BI41" t="inlineStr">
+        <is>
+          <t>HCL Technologies Limited</t>
+        </is>
+      </c>
+      <c r="BJ41" t="n">
+        <v>1922.7</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>2300</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1449</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>1879.7382</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1920</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>2.57143</v>
+      </c>
+      <c r="BP41" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BQ41" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>3228000000</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>2814000128</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>690000000</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>2.435</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>2.736</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>13653999616</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>8.393000000000001</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>5.039</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>0.13455</v>
+      </c>
+      <c r="CB41" t="n">
+        <v>0.24864</v>
+      </c>
+      <c r="CC41" t="n">
+        <v>1906249984</v>
+      </c>
+      <c r="CD41" t="n">
+        <v>2520999936</v>
+      </c>
+      <c r="CE41" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="CG41" t="n">
+        <v>0.35294</v>
+      </c>
+      <c r="CH41" t="n">
+        <v>0.20608999</v>
+      </c>
+      <c r="CI41" t="n">
+        <v>0.18577999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>54303</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3831.55</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3832</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3800</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3883.95</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3831.55</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3832</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3800</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3883.95</v>
+      </c>
+      <c r="U42" t="n">
+        <v>28</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.0072000003</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1718841600</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.28530002</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>39.371754</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>27.620617</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1856437</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1856437</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2191828</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>2262870</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>2262870</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>5317215125504</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3175.05</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>3919.9</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.190856</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>3579.615</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>3605.8923</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.0073077474</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>6192317333504</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.05573</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1139546784</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1375129984</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.16354999</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.48009</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1376579968</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>648.865</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>5.959175</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>104.42</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0.14203441</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1718841600</v>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF42" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG42" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>LARSEN &amp; TOUBRO LTD.</t>
+        </is>
+      </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>Larsen &amp; Toubro Limited</t>
+        </is>
+      </c>
+      <c r="BJ42" t="n">
+        <v>3866.7</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>4550</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2946</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>4037.182</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>4100</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>1.57576</v>
+      </c>
+      <c r="BP42" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ42" t="n">
+        <v>33</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>554390978560</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>403.144</v>
+      </c>
+      <c r="BT42" t="n">
+        <v>282901610496</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>1261834862592</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>2427003600896</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>119.062</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>1765.484</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>0.045679998</v>
+      </c>
+      <c r="CB42" t="n">
+        <v>0.16102</v>
+      </c>
+      <c r="CC42" t="n">
+        <v>175528574976</v>
+      </c>
+      <c r="CD42" t="n">
+        <v>143537602560</v>
+      </c>
+      <c r="CE42" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CF42" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="CG42" t="n">
+        <v>0.36333</v>
+      </c>
+      <c r="CH42" t="n">
+        <v>0.116560005</v>
+      </c>
+      <c r="CI42" t="n">
+        <v>0.10278</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>43000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1801</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1801</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="U43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.2928</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>39.21882</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>32.61039</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1901203</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>4330430660608</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1208.55</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1960.35</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>8.607882</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1839.705</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1675.1412</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>4147643416576</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.21972999</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1035114634</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.55097</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.26382</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>288.721</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>6.25119</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0.4538827</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF43" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG43" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>SUN PHARMACEUTICAL IND L</t>
+        </is>
+      </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ43" t="n">
+        <v>1804.85</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>2450</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2047.1082</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>2094</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>1.75676</v>
+      </c>
+      <c r="BP43" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ43" t="n">
+        <v>37</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>201221898240</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>84.059</v>
+      </c>
+      <c r="BT43" t="n">
+        <v>138017406976</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>25719500800</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>503077404672</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>3.707</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>209.894</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>0.08541000999999999</v>
+      </c>
+      <c r="CB43" t="n">
+        <v>0.16771</v>
+      </c>
+      <c r="CC43" t="n">
+        <v>77989175296</v>
+      </c>
+      <c r="CD43" t="n">
+        <v>127154700288</v>
+      </c>
+      <c r="CE43" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CG43" t="n">
+        <v>0.7760500299999999</v>
+      </c>
+      <c r="CH43" t="n">
+        <v>0.27435</v>
+      </c>
+      <c r="CI43" t="n">
+        <v>0.23963</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="O44" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>6935</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="S44" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="T44" t="n">
+        <v>6935</v>
+      </c>
+      <c r="U44" t="n">
+        <v>36</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.14479999</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>27.547754</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>20.147312</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1105976</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>4241877106688</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>6187.8</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>7830</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>12.393681</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>6913.049</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>6954.6475</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.005255168</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>6715976187904</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.44922</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>258677249</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>618489984</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.54955</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.25113</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>619225024</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>1403.263</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>4.881694</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>248.67</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>-0.06066984</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF44" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>BAJAJ FINANCE LIMITED</t>
+        </is>
+      </c>
+      <c r="BI44" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Limited</t>
+        </is>
+      </c>
+      <c r="BJ44" t="n">
+        <v>6850.3</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>5700</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>8012.645</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>8120</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP44" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ44" t="n">
+        <v>31</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>124034998272</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>200.516</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>2581427650560</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>342261301248</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>290.321</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>554.982</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>0.04145</v>
+      </c>
+      <c r="CB44" t="n">
+        <v>0.20686</v>
+      </c>
+      <c r="CD44" t="n">
+        <v>-729231917056</v>
+      </c>
+      <c r="CE44" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="CG44" t="n">
+        <v>0.93649</v>
+      </c>
+      <c r="CI44" t="n">
+        <v>0.59731996</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>91496</v>
+      </c>
+      <c r="K45" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="N45" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="P45" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="R45" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="S45" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="T45" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>8.635382</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>17.781937</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>3725041074176</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>804.3</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.83946526</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>710.0359999999999</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>3581168058368</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.07609</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2262900518</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>508503008</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.09694</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.17828</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>4901369856</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>221.588</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>3.4297886</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0.5886122</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF45" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>TATA MOTORS DVR  A  ORD</t>
+        </is>
+      </c>
+      <c r="BI45" t="inlineStr">
+        <is>
+          <t>Tata Motors Limited</t>
+        </is>
+      </c>
+      <c r="BJ45" t="n">
+        <v>760</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>203</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>203</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>203</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>203</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP45" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BQ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>592166387712</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>154.522</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>511051988992</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>1120443695104</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>4437397471232</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>117.15</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>1157.912</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="CG45" t="n">
+        <v>0.44472998</v>
+      </c>
+      <c r="CH45" t="n">
+        <v>0.11517</v>
+      </c>
+      <c r="CI45" t="n">
+        <v>0.09727000399999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>20074</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="N46" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="O46" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="P46" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="R46" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="S46" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="T46" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.44419998</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>18.765871</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>14.450799</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>15840758</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>3582919442432</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>280.85</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>448.45</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.9508511</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>398.172</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>380.302</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.02776649</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>5970720718848</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.120179996</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>4494113853</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>9696669696</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.5267100300000001</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0.36269</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>9789920256</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>173.535</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>2.1292534</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0.28611207</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF46" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG46" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>NTPC LTD</t>
+        </is>
+      </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>NTPC Limited</t>
+        </is>
+      </c>
+      <c r="BJ46" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>500</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>280</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>446.2</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>460</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>1.76923</v>
+      </c>
+      <c r="BP46" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ46" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>78724300800</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>8.119</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>502551609344</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>2420094795776</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>1836593053696</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>139.959</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>189.407</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>0.04476</v>
+      </c>
+      <c r="CB46" t="n">
+        <v>0.13656001</v>
+      </c>
+      <c r="CC46" t="n">
+        <v>-149665693696</v>
+      </c>
+      <c r="CD46" t="n">
+        <v>470758195200</v>
+      </c>
+      <c r="CE46" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="CG46" t="n">
+        <v>0.42235002</v>
+      </c>
+      <c r="CH46" t="n">
+        <v>0.27363002</v>
+      </c>
+      <c r="CI46" t="n">
+        <v>0.16645001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>104633</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1160</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1160</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13.19245</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>11.281429</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>9164065</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>3670375661568</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>995.7</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1339.65</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>5.4975696</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1163.149</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1163.6274</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.0008573388</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>5027766730752</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.41832</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>2739610087</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>3094629888</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.02031</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.68768</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>3098540032</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>557.7140000000001</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>2.1239383</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.060949445</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF47" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG47" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>AXIS BANK LIMITED</t>
+        </is>
+      </c>
+      <c r="BI47" t="inlineStr">
+        <is>
+          <t>Axis Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ47" t="n">
+        <v>1184.55</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1590</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1216</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>1363.0714</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1360</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>1.53659</v>
+      </c>
+      <c r="BP47" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ47" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>892193079296</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>288.587</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>2252174524416</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>667636072448</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>216.263</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>0.01918</v>
+      </c>
+      <c r="CB47" t="n">
+        <v>0.17764999</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>-974622818304</v>
+      </c>
+      <c r="CE47" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="CI47" t="n">
+        <v>0.47516</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>18228</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="N48" t="n">
+        <v>11200</v>
+      </c>
+      <c r="O48" t="n">
+        <v>11121</v>
+      </c>
+      <c r="P48" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="R48" t="n">
+        <v>11200</v>
+      </c>
+      <c r="S48" t="n">
+        <v>11121</v>
+      </c>
+      <c r="T48" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="U48" t="n">
+        <v>125</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.28030002</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>25.380554</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>20.232302</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>545978</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>3558397706240</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>9737.65</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>13680</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.4504745</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>11713.743</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>12249.159</v>
+      </c>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="n">
+        <v>3523508436992</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.09656000000000001</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>131416090</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0.30049</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2834.796</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>3.9925098</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>-0.176</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>445.93</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>521.85</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0.07363105</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>125</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF48" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="BH48" t="inlineStr">
+        <is>
+          <t>MARUTI SUZUKI INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="BI48" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Limited</t>
+        </is>
+      </c>
+      <c r="BJ48" t="n">
+        <v>11317.95</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>16600</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>10800</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>13347.477</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>13415.5</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>1.80952</v>
+      </c>
+      <c r="BP48" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ48" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>36439998464</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>115.903</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>199318994944</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1584000000</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>1452125978624</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>4618.617</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>0.086339995</v>
+      </c>
+      <c r="CB48" t="n">
+        <v>0.18101</v>
+      </c>
+      <c r="CC48" t="n">
+        <v>24424624128</v>
+      </c>
+      <c r="CD48" t="n">
+        <v>138483007488</v>
+      </c>
+      <c r="CE48" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CG48" t="n">
+        <v>0.2915</v>
+      </c>
+      <c r="CH48" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="CI48" t="n">
+        <v>0.09648</v>
       </c>
     </row>
   </sheetData>

--- a/excel/NSE_Stock_Master_DataLake.xlsx
+++ b/excel/NSE_Stock_Master_DataLake.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI48"/>
+  <dimension ref="A1:CI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13094,8 +13094,6 @@
       <c r="AM48" t="n">
         <v>12249.159</v>
       </c>
-      <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="n">
         <v>3523508436992</v>
       </c>
@@ -13244,6 +13242,4884 @@
         <v>0.13726</v>
       </c>
       <c r="CI48" t="n">
+        <v>0.09648</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>347362</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1310</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>26.110891</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>20.582012</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>15838421</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>17748419674112</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1203.15</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1608.8</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.9188768</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1327.6465</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1441.7959</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.00756401</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>20523773853696</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.07343</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>6178648529</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.49667</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.27192</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>605.573</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.1658</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0.06658268000000001</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF49" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH49" t="inlineStr">
+        <is>
+          <t>RELIANCE INDUSTRIES LTD</t>
+        </is>
+      </c>
+      <c r="BI49" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ49" t="n">
+        <v>1311.55</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>1603.6389</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>1.83784</v>
+      </c>
+      <c r="BP49" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ49" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>2147900063744</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>158.729</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>1562509967360</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>3575249895424</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>9249379844096</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>37.464</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>683.526</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="CB49" t="n">
+        <v>0.08479</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>-416127483904</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>1797530058752</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="CG49" t="n">
+        <v>0.34339002</v>
+      </c>
+      <c r="CH49" t="n">
+        <v>0.16893</v>
+      </c>
+      <c r="CI49" t="n">
+        <v>0.11306</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>612724</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4453</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4465</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4453</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4465</v>
+      </c>
+      <c r="U50" t="n">
+        <v>40</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.42810002</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>34.01301</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>28.708265</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2325120</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>16084219461632</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3563</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>4592.25</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>6.467526</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>4170.453</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>4102.5327</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.012768675</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>15705927843840</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.19076</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1002644413</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.7178399600000001</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0.16514999</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>280.521</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>15.847299</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>154.68</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0.22031903</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF50" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="BH50" t="inlineStr">
+        <is>
+          <t>TATA CONSULTANCY SERV LT</t>
+        </is>
+      </c>
+      <c r="BI50" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Limited</t>
+        </is>
+      </c>
+      <c r="BJ50" t="n">
+        <v>4445.5</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>5710</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>4508.0454</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.30233</v>
+      </c>
+      <c r="BP50" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ50" t="n">
+        <v>44</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>477630005248</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>132.012</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>651870011392</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>90469998592</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>2486920019968</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>8.836</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>685.788</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>0.24511999</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>0.46772</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>306369986560</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>443359985664</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CG50" t="n">
+        <v>0.39264</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>0.26212</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>0.24067</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>206758</v>
+      </c>
+      <c r="K51" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1857</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1844</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1857</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1844</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="U51" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>21.008038</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>16.689299</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>18711555</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>14187713527808</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1363.55</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1879.95</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>5.1385007</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1733.471</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1614.3867</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>18288729915392</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.25056</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>7578068585</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>7644859904</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.01671</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.51792</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>7685640192</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>632.437</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>2.9344423</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>88.34</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0.12407637</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="BE51" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF51" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG51" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH51" t="inlineStr">
+        <is>
+          <t>HDFC BANK LTD</t>
+        </is>
+      </c>
+      <c r="BI51" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ51" t="n">
+        <v>1855.85</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1948.5775</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="BP51" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ51" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>2663853850624</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>349.683</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>6660388552704</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>2761061040128</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>363.255</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="CB51" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="CD51" t="n">
+        <v>-1467762343936</v>
+      </c>
+      <c r="CE51" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CI51" t="n">
+        <v>0.32936</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>24893</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1618</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1618</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="U52" t="n">
+        <v>8</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.3868</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>77.52789</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>33.387047</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>5772020</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>9557012119552</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>6.1468463</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1625.3</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1455.7292</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.004952487</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>11607764631552</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>2563438641</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>5691039744</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.55272996</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.31295002</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>5981170176</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>150.527</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>10.61504</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.5964930000000001</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="BE52" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF52" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG52" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="BH52" t="inlineStr">
+        <is>
+          <t>BHARTI AIRTEL LIMITED</t>
+        </is>
+      </c>
+      <c r="BI52" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="BJ52" t="n">
+        <v>1597.85</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>2070</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1120</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1836</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>1.61111</v>
+      </c>
+      <c r="BP52" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ52" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>125100998656</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>21.621</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>722990989312</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>2255408070656</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>1554783010816</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>204.474</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>270.184</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>0.12929</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>39372623872</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>856934973440</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CG52" t="n">
+        <v>0.63526</v>
+      </c>
+      <c r="CH52" t="n">
+        <v>0.46501</v>
+      </c>
+      <c r="CI52" t="n">
+        <v>0.26152</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>187765</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>10</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>20.080853</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>18.071215</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>13949251</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>9376868859904</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>970.15</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1362.35</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>5.722805</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1272.428</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1189.9993</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>10073656000512</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.28909</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>7019272418</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>7056909824</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0.02172</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.5452399999999999</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>7098070016</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>397.441</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>3.3432634</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0.30641043</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="BE53" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF53" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG53" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH53" t="inlineStr">
+        <is>
+          <t>ICICI BANK LTD.</t>
+        </is>
+      </c>
+      <c r="BI53" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ53" t="n">
+        <v>1328.75</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>1463.475</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1458</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="BP53" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ53" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>1643846303744</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>233.261</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>2197605449728</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>1638509182976</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>233.246</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>0.18731001</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>-23252623360</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="CI53" t="n">
+        <v>0.37491</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>317788</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1934.85</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1932.8</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1937.95</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1934.85</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1932.8</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1937.95</v>
+      </c>
+      <c r="U54" t="n">
+        <v>41</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.021300001</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1730160000</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.5924</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>29.498236</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>26.64253</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>3572577</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3572577</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>5886262</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>6268840</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>6268840</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>7962600407040</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1358.35</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1991.45</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>422.73306</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1873.38</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1694.6937</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.0002532496</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>7960018812928</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.17159</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>3509357129</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>4142010112</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.15783</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>4142010112</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>737.96545</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0.29150152</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1730160000</v>
+      </c>
+      <c r="BE54" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF54" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG54" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="BH54" t="inlineStr">
+        <is>
+          <t>INFOSYS LIMITED</t>
+        </is>
+      </c>
+      <c r="BI54" t="inlineStr">
+        <is>
+          <t>Infosys Limited</t>
+        </is>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1922.4</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>2330</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1530</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>2110</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>2.14634</v>
+      </c>
+      <c r="BP54" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ54" t="n">
+        <v>41</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>3488000000</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>4337999872</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1051000000</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>18836000768</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>0.15253</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>0.31404</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>2286749952</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>3671000064</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="CG54" t="n">
+        <v>0.29518</v>
+      </c>
+      <c r="CH54" t="n">
+        <v>0.23030001</v>
+      </c>
+      <c r="CI54" t="n">
+        <v>0.21945</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>232296</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="n">
+        <v>8</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>865.45</v>
+      </c>
+      <c r="N55" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="O55" t="n">
+        <v>857</v>
+      </c>
+      <c r="P55" t="n">
+        <v>875.45</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>865.45</v>
+      </c>
+      <c r="R55" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>857</v>
+      </c>
+      <c r="T55" t="n">
+        <v>875.45</v>
+      </c>
+      <c r="U55" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1716336000</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.1709</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>10.775421</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>10.36975</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>14518659</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>14518659</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>14648788</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>12385570</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>12385570</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>7707748204544</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>600.65</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>912</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.2937837</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>816.803</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>811.4935</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.015829915</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>10402266087424</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.21295</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>3749854196</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>8924619776</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.58242</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0.27388</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>8943219712</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>518.846</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.6645595</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>82.67</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.40602362</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1716336000</v>
+      </c>
+      <c r="BE55" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF55" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG55" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="BH55" t="inlineStr">
+        <is>
+          <t>STATE BANK OF INDIA</t>
+        </is>
+      </c>
+      <c r="BI55" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="BJ55" t="n">
+        <v>863.65</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1102</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>690</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>957.87805</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>990</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>1.85366</v>
+      </c>
+      <c r="BP55" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ55" t="n">
+        <v>41</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>3549721001984</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>397.745</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>6066625052672</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>3360276873216</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>376.517</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>0.01121</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>0.16746001</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>-4326515802112</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CI55" t="n">
+        <v>0.32476002</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>37312</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>470</v>
+      </c>
+      <c r="O56" t="n">
+        <v>467.7</v>
+      </c>
+      <c r="P56" t="n">
+        <v>474.95</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>470</v>
+      </c>
+      <c r="S56" t="n">
+        <v>467.7</v>
+      </c>
+      <c r="T56" t="n">
+        <v>474.95</v>
+      </c>
+      <c r="U56" t="n">
+        <v>15</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1717459200</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.8373999600000001</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>28.658758</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>24.8055</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>7549627</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>7549627</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>11628875</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>12536086</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>12536086</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>5894463029248</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>399.35</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>7.8451347</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>483.81</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>462.1195</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.01604278</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>5713022156800</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.27337998</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>9137953176</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>12510799872</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.28409</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0.46497002</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>12633900032</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>60.148</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>7.833178</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.041330576</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1717459200</v>
+      </c>
+      <c r="BE56" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF56" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG56" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="BH56" t="inlineStr">
+        <is>
+          <t>ITC LTD</t>
+        </is>
+      </c>
+      <c r="BI56" t="inlineStr">
+        <is>
+          <t>ITC Limited</t>
+        </is>
+      </c>
+      <c r="BJ56" t="n">
+        <v>471.15</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>595</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>420</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>540.9143</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>540</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BP56" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ56" t="n">
+        <v>35</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>190998691840</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>15.263</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>264712994816</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>3043399936</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>751352676352</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>60.164</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>0.28645</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>96529309696</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>161626603520</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="CG56" t="n">
+        <v>0.58748</v>
+      </c>
+      <c r="CH56" t="n">
+        <v>0.35232</v>
+      </c>
+      <c r="CI56" t="n">
+        <v>0.301</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>19427</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2494.6</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2495</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2475</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2495.8</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2494.6</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2495</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2475</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2495.8</v>
+      </c>
+      <c r="U57" t="n">
+        <v>43</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1730851200</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.9608999499999999</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>56.824528</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>48.712643</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1308005</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1308005</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1699846</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1798437</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1798437</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>5836731580416</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2172.05</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>3035</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>9.352238</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2594.495</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2541.5217</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>43</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.017237231</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>5724185296896</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.16452</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>873352575</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>2349590016</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.62259</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0.18566</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>2349920000</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>216.156</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>11.490775</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>-0.007928431</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1730851200</v>
+      </c>
+      <c r="BE57" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF57" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG57" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="BH57" t="inlineStr">
+        <is>
+          <t>HINDUSTAN UNILEVER LTD.</t>
+        </is>
+      </c>
+      <c r="BI57" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Limited</t>
+        </is>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2483.8</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2057</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2863.6924</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>2870</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="BP57" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ57" t="n">
+        <v>39</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>128999997440</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>54.916</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>142339997696</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>16510000128</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>624099983360</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>265.67</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>0.10564999</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>0.20233999</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>74808745984</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>117009997824</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="CG57" t="n">
+        <v>0.51583</v>
+      </c>
+      <c r="CH57" t="n">
+        <v>0.22806999</v>
+      </c>
+      <c r="CI57" t="n">
+        <v>0.21694</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Insurance - Life</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>98661</v>
+      </c>
+      <c r="K58" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>976.9</v>
+      </c>
+      <c r="N58" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="P58" t="n">
+        <v>992.95</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>976.9</v>
+      </c>
+      <c r="R58" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="S58" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="T58" t="n">
+        <v>992.95</v>
+      </c>
+      <c r="U58" t="n">
+        <v>13</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.1523</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>14.97031</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>13.836587</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1328572</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1328572</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1278975</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>2018100</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>2018100</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>6219371118592</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>746.3</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1222</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.7168855</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>937.013</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>997.0507</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>5310828249088</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.05431</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>221374920</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>6325000192</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>6325320192</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>130.825</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>7.5157657</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>60.52</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0.27537453</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="BE58" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF58" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG58" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="BH58" t="inlineStr">
+        <is>
+          <t>LIFE INSURA CORP OF INDIA</t>
+        </is>
+      </c>
+      <c r="BI58" t="inlineStr">
+        <is>
+          <t>Life Insurance Corporation of India</t>
+        </is>
+      </c>
+      <c r="BJ58" t="n">
+        <v>983.25</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1385</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>870</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1162.3889</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1196.5</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="BP58" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ58" t="n">
+        <v>18</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>437919514624</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>69.236</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>515563913216</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>11200000</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>8675542958080</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>1254.09</v>
+      </c>
+      <c r="CE58" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="CG58" t="n">
+        <v>0.10604999</v>
+      </c>
+      <c r="CH58" t="n">
+        <v>0.05943</v>
+      </c>
+      <c r="CI58" t="n">
+        <v>0.06021</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HDFC.NS</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>86400</v>
+      </c>
+      <c r="BF59" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="BG59" t="inlineStr">
+        <is>
+          <t>HDFC.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1924</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1926</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1915.3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1924</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1926</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1915.3</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="U60" t="n">
+        <v>48</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1729555200</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>31.056372</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>27.420788</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2250378</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>2250378</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>2576384</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>3118916</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>3118916</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>5208056266752</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>381.43082</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1841.927</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1619.4187</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.00033523908</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>5205512945664</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.14677</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1009674174</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2708720128</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.61319</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.25531998</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>2708720128</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>633.5090300000001</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.3980223</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1729555200</v>
+      </c>
+      <c r="BE60" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF60" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG60" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="BH60" t="inlineStr">
+        <is>
+          <t>HCL TECHNOLOGIES LTD</t>
+        </is>
+      </c>
+      <c r="BI60" t="inlineStr">
+        <is>
+          <t>HCL Technologies Limited</t>
+        </is>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1922.7</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>2300</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1449</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>1879.7382</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1920</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.57143</v>
+      </c>
+      <c r="BP60" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BQ60" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>3228000000</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>2814000128</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>690000000</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>2.435</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>2.736</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>13653999616</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>8.393000000000001</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>5.039</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>0.13455</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>0.24864</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>1906249984</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>2520999936</v>
+      </c>
+      <c r="CE60" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="CG60" t="n">
+        <v>0.35294</v>
+      </c>
+      <c r="CH60" t="n">
+        <v>0.20608999</v>
+      </c>
+      <c r="CI60" t="n">
+        <v>0.18577999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>54303</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7</v>
+      </c>
+      <c r="K61" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3831.55</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3832</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3800</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3883.95</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3831.55</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3832</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3800</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3883.95</v>
+      </c>
+      <c r="U61" t="n">
+        <v>28</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.0072000003</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1718841600</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.28530002</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>39.371754</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>27.620617</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1856437</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1856437</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2191828</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>2262870</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2262870</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>5317215125504</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3175.05</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>3919.9</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2.190856</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>3579.615</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>3605.8923</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.0073077474</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>6192317333504</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.05573</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1139546784</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1375129984</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.16354999</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.48009</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1376579968</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>648.865</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>5.959175</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>104.42</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0.14203441</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1718841600</v>
+      </c>
+      <c r="BE61" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF61" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG61" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="BH61" t="inlineStr">
+        <is>
+          <t>LARSEN &amp; TOUBRO LTD.</t>
+        </is>
+      </c>
+      <c r="BI61" t="inlineStr">
+        <is>
+          <t>Larsen &amp; Toubro Limited</t>
+        </is>
+      </c>
+      <c r="BJ61" t="n">
+        <v>3866.7</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>4550</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2946</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>4037.182</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>4100</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>1.57576</v>
+      </c>
+      <c r="BP61" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ61" t="n">
+        <v>33</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>554390978560</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>403.144</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>282901610496</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>1261834862592</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>2427003600896</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>119.062</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>1765.484</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>0.045679998</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>0.16102</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>175528574976</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>143537602560</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="CG61" t="n">
+        <v>0.36333</v>
+      </c>
+      <c r="CH61" t="n">
+        <v>0.116560005</v>
+      </c>
+      <c r="CI61" t="n">
+        <v>0.10278</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>43000</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1801</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1801</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="U62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.2928</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>39.21882</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>32.61039</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1901203</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>4330430660608</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1208.55</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1960.35</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>8.607882</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1839.705</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1675.1412</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>4147643416576</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.21972999</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1035114634</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.55097</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0.26382</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>288.721</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>6.25119</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.4538827</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BE62" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF62" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG62" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="BH62" t="inlineStr">
+        <is>
+          <t>SUN PHARMACEUTICAL IND L</t>
+        </is>
+      </c>
+      <c r="BI62" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ62" t="n">
+        <v>1804.85</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>2450</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2047.1082</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>2094</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>1.75676</v>
+      </c>
+      <c r="BP62" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ62" t="n">
+        <v>37</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>201221898240</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>84.059</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>138017406976</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>25719500800</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>503077404672</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>3.707</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>209.894</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>0.08541000999999999</v>
+      </c>
+      <c r="CB62" t="n">
+        <v>0.16771</v>
+      </c>
+      <c r="CC62" t="n">
+        <v>77989175296</v>
+      </c>
+      <c r="CD62" t="n">
+        <v>127154700288</v>
+      </c>
+      <c r="CE62" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CG62" t="n">
+        <v>0.7760500299999999</v>
+      </c>
+      <c r="CH62" t="n">
+        <v>0.27435</v>
+      </c>
+      <c r="CI62" t="n">
+        <v>0.23963</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="P63" t="n">
+        <v>6935</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="S63" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="T63" t="n">
+        <v>6935</v>
+      </c>
+      <c r="U63" t="n">
+        <v>36</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.14479999</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>27.547754</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>20.147312</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1105976</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>4241877106688</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>6187.8</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>7830</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>12.393681</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>6913.049</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>6954.6475</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.005255168</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>6715976187904</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.44922</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>258677249</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>618489984</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.54955</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.25113</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>619225024</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>1403.263</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>4.881694</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>248.67</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>-0.06066984</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="BE63" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF63" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG63" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH63" t="inlineStr">
+        <is>
+          <t>BAJAJ FINANCE LIMITED</t>
+        </is>
+      </c>
+      <c r="BI63" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Limited</t>
+        </is>
+      </c>
+      <c r="BJ63" t="n">
+        <v>6850.3</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>5700</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>8012.645</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>8120</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP63" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ63" t="n">
+        <v>31</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>124034998272</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>200.516</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>2581427650560</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>342261301248</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>290.321</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>554.982</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>0.04145</v>
+      </c>
+      <c r="CB63" t="n">
+        <v>0.20686</v>
+      </c>
+      <c r="CD63" t="n">
+        <v>-729231917056</v>
+      </c>
+      <c r="CE63" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="CG63" t="n">
+        <v>0.93649</v>
+      </c>
+      <c r="CI63" t="n">
+        <v>0.59731996</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>91496</v>
+      </c>
+      <c r="K64" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="N64" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="O64" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="P64" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="R64" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="S64" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="T64" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>8.635382</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>17.781937</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>3725041074176</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>804.3</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.83946526</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>710.0359999999999</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>3581168058368</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.07609</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2262900518</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>508503008</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.09694</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.17828</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>4901369856</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>221.588</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>3.4297886</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0.5886122</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="BE64" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF64" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG64" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="BH64" t="inlineStr">
+        <is>
+          <t>TATA MOTORS DVR  A  ORD</t>
+        </is>
+      </c>
+      <c r="BI64" t="inlineStr">
+        <is>
+          <t>Tata Motors Limited</t>
+        </is>
+      </c>
+      <c r="BJ64" t="n">
+        <v>760</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>203</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>203</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>203</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>203</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP64" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BQ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>592166387712</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>154.522</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>511051988992</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>1120443695104</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>4437397471232</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>117.15</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>1157.912</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="CG64" t="n">
+        <v>0.44472998</v>
+      </c>
+      <c r="CH64" t="n">
+        <v>0.11517</v>
+      </c>
+      <c r="CI64" t="n">
+        <v>0.09727000399999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>20074</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>9</v>
+      </c>
+      <c r="K65" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="N65" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="O65" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="P65" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="R65" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="S65" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="T65" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="U65" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.44419998</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>18.765871</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>14.450799</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>15840758</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>3582919442432</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>280.85</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>448.45</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.9508511</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>398.172</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>380.302</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.02776649</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>5970720718848</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.120179996</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>4494113853</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>9696669696</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.5267100300000001</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.36269</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>9789920256</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>173.535</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>2.1292534</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.28611207</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="BE65" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF65" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG65" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="BH65" t="inlineStr">
+        <is>
+          <t>NTPC LTD</t>
+        </is>
+      </c>
+      <c r="BI65" t="inlineStr">
+        <is>
+          <t>NTPC Limited</t>
+        </is>
+      </c>
+      <c r="BJ65" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>500</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>280</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>446.2</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>460</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>1.76923</v>
+      </c>
+      <c r="BP65" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ65" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>78724300800</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>8.119</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>502551609344</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>2420094795776</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>1836593053696</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>139.959</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>189.407</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>0.04476</v>
+      </c>
+      <c r="CB65" t="n">
+        <v>0.13656001</v>
+      </c>
+      <c r="CC65" t="n">
+        <v>-149665693696</v>
+      </c>
+      <c r="CD65" t="n">
+        <v>470758195200</v>
+      </c>
+      <c r="CE65" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="CF65" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="CG65" t="n">
+        <v>0.42235002</v>
+      </c>
+      <c r="CH65" t="n">
+        <v>0.27363002</v>
+      </c>
+      <c r="CI65" t="n">
+        <v>0.16645001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>104633</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1160</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1160</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>13.19245</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>11.281429</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>9164065</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>3670375661568</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>995.7</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1339.65</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>5.4975696</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1163.149</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1163.6274</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.0008573388</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>5027766730752</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.41832</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>2739610087</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>3094629888</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.02031</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0.68768</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>3098540032</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>557.7140000000001</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2.1239383</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0.060949445</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BE66" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF66" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG66" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH66" t="inlineStr">
+        <is>
+          <t>AXIS BANK LIMITED</t>
+        </is>
+      </c>
+      <c r="BI66" t="inlineStr">
+        <is>
+          <t>Axis Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ66" t="n">
+        <v>1184.55</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1590</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1216</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>1363.0714</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1360</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>1.53659</v>
+      </c>
+      <c r="BP66" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ66" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>892193079296</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>288.587</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>2252174524416</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>667636072448</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>216.263</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>0.01918</v>
+      </c>
+      <c r="CB66" t="n">
+        <v>0.17764999</v>
+      </c>
+      <c r="CD66" t="n">
+        <v>-974622818304</v>
+      </c>
+      <c r="CE66" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="CF66" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="CI66" t="n">
+        <v>0.47516</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>18228</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="N67" t="n">
+        <v>11200</v>
+      </c>
+      <c r="O67" t="n">
+        <v>11121</v>
+      </c>
+      <c r="P67" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>11200</v>
+      </c>
+      <c r="S67" t="n">
+        <v>11121</v>
+      </c>
+      <c r="T67" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="U67" t="n">
+        <v>125</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.28030002</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>25.380554</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>20.232302</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>545978</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>3558397706240</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>9737.65</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>13680</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2.4504745</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>11713.743</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>12249.159</v>
+      </c>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="n">
+        <v>3523508436992</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.09656000000000001</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>131416090</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0.30049</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2834.796</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>3.9925098</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>-0.176</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>445.93</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>521.85</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0.07363105</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>125</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="BE67" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF67" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG67" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="BH67" t="inlineStr">
+        <is>
+          <t>MARUTI SUZUKI INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="BI67" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Limited</t>
+        </is>
+      </c>
+      <c r="BJ67" t="n">
+        <v>11317.95</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>16600</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>10800</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>13347.477</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>13415.5</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>1.80952</v>
+      </c>
+      <c r="BP67" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ67" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>36439998464</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>115.903</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>199318994944</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>1584000000</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>1452125978624</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>4618.617</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>0.086339995</v>
+      </c>
+      <c r="CB67" t="n">
+        <v>0.18101</v>
+      </c>
+      <c r="CC67" t="n">
+        <v>24424624128</v>
+      </c>
+      <c r="CD67" t="n">
+        <v>138483007488</v>
+      </c>
+      <c r="CE67" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CG67" t="n">
+        <v>0.2915</v>
+      </c>
+      <c r="CH67" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="CI67" t="n">
         <v>0.09648</v>
       </c>
     </row>

--- a/excel/NSE_Stock_Master_DataLake.xlsx
+++ b/excel/NSE_Stock_Master_DataLake.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI67"/>
+  <dimension ref="A1:CI86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17970,8 +17970,6 @@
       <c r="AM67" t="n">
         <v>12249.159</v>
       </c>
-      <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="n">
         <v>3523508436992</v>
       </c>
@@ -18120,6 +18118,4884 @@
         <v>0.13726</v>
       </c>
       <c r="CI67" t="n">
+        <v>0.09648</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>347362</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>9</v>
+      </c>
+      <c r="K68" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1310</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1310</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>26.110891</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>20.582012</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>15838421</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>17748419674112</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1203.15</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1608.8</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.9188768</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1327.6465</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1441.7959</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.00756401</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>20523773853696</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.07343</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>6178648529</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.49667</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0.27192</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>605.573</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>2.1658</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0.06658268000000001</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="BE68" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF68" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG68" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH68" t="inlineStr">
+        <is>
+          <t>RELIANCE INDUSTRIES LTD</t>
+        </is>
+      </c>
+      <c r="BI68" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ68" t="n">
+        <v>1311.55</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>1603.6389</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>1.83784</v>
+      </c>
+      <c r="BP68" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ68" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>2147900063744</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>158.729</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>1562509967360</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>3575249895424</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>9249379844096</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>37.464</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>683.526</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="CB68" t="n">
+        <v>0.08479</v>
+      </c>
+      <c r="CC68" t="n">
+        <v>-416127483904</v>
+      </c>
+      <c r="CD68" t="n">
+        <v>1797530058752</v>
+      </c>
+      <c r="CE68" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="CG68" t="n">
+        <v>0.34339002</v>
+      </c>
+      <c r="CH68" t="n">
+        <v>0.16893</v>
+      </c>
+      <c r="CI68" t="n">
+        <v>0.11306</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>612724</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4453</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4465</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4453</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4465</v>
+      </c>
+      <c r="U69" t="n">
+        <v>40</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.42810002</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>34.01301</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>28.708265</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2325120</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>16084219461632</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3563</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>4592.25</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>6.467526</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>4170.453</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>4102.5327</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.012768675</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>15705927843840</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.19076</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1002644413</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0.7178399600000001</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.16514999</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>280.521</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>15.847299</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>154.68</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0.22031903</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="BE69" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF69" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG69" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="BH69" t="inlineStr">
+        <is>
+          <t>TATA CONSULTANCY SERV LT</t>
+        </is>
+      </c>
+      <c r="BI69" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Limited</t>
+        </is>
+      </c>
+      <c r="BJ69" t="n">
+        <v>4445.5</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>5710</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>4508.0454</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>2.30233</v>
+      </c>
+      <c r="BP69" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ69" t="n">
+        <v>44</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>477630005248</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>132.012</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>651870011392</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>90469998592</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>2486920019968</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>8.836</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>685.788</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>0.24511999</v>
+      </c>
+      <c r="CB69" t="n">
+        <v>0.46772</v>
+      </c>
+      <c r="CC69" t="n">
+        <v>306369986560</v>
+      </c>
+      <c r="CD69" t="n">
+        <v>443359985664</v>
+      </c>
+      <c r="CE69" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="CF69" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CG69" t="n">
+        <v>0.39264</v>
+      </c>
+      <c r="CH69" t="n">
+        <v>0.26212</v>
+      </c>
+      <c r="CI69" t="n">
+        <v>0.24067</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>206758</v>
+      </c>
+      <c r="K70" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1857</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1844</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1857</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1844</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>21.008038</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>16.689299</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>18711555</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>14187713527808</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1363.55</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1879.95</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>5.1385007</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1733.471</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1614.3867</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>18288729915392</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.25056</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>7578068585</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>7644859904</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.01671</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.51792</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>7685640192</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>632.437</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2.9344423</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>88.34</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0.12407637</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="BE70" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF70" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG70" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH70" t="inlineStr">
+        <is>
+          <t>HDFC BANK LTD</t>
+        </is>
+      </c>
+      <c r="BI70" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ70" t="n">
+        <v>1855.85</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>1948.5775</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="BP70" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ70" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>2663853850624</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>349.683</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>6660388552704</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>2761061040128</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>363.255</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="CB70" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="CD70" t="n">
+        <v>-1467762343936</v>
+      </c>
+      <c r="CE70" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CF70" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CI70" t="n">
+        <v>0.32936</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>24893</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1618</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1618</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="U71" t="n">
+        <v>8</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.3868</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>77.52789</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>33.387047</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>5772020</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>9557012119552</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>6.1468463</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1625.3</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1455.7292</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.004952487</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>11607764631552</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>2563438641</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>5691039744</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.55272996</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.31295002</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>5981170176</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>150.527</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>10.61504</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0.5964930000000001</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="BE71" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF71" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG71" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="BH71" t="inlineStr">
+        <is>
+          <t>BHARTI AIRTEL LIMITED</t>
+        </is>
+      </c>
+      <c r="BI71" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="BJ71" t="n">
+        <v>1597.85</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2070</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1120</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1836</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>1.61111</v>
+      </c>
+      <c r="BP71" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ71" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>125100998656</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>21.621</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>722990989312</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>2255408070656</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="BX71" t="n">
+        <v>1554783010816</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>204.474</v>
+      </c>
+      <c r="BZ71" t="n">
+        <v>270.184</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="CB71" t="n">
+        <v>0.12929</v>
+      </c>
+      <c r="CC71" t="n">
+        <v>39372623872</v>
+      </c>
+      <c r="CD71" t="n">
+        <v>856934973440</v>
+      </c>
+      <c r="CE71" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="CF71" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CG71" t="n">
+        <v>0.63526</v>
+      </c>
+      <c r="CH71" t="n">
+        <v>0.46501</v>
+      </c>
+      <c r="CI71" t="n">
+        <v>0.26152</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>187765</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>10</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>20.080853</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>18.071215</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>13949251</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>9376868859904</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>970.15</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1362.35</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>5.722805</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1272.428</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1189.9993</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>10073656000512</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.28909</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>7019272418</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>7056909824</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.02172</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0.5452399999999999</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>7098070016</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>397.441</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>3.3432634</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0.30641043</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="BE72" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF72" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG72" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH72" t="inlineStr">
+        <is>
+          <t>ICICI BANK LTD.</t>
+        </is>
+      </c>
+      <c r="BI72" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ72" t="n">
+        <v>1328.75</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>1463.475</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1458</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="BP72" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BQ72" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>1643846303744</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>233.261</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>2197605449728</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>1638509182976</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>233.246</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="CB72" t="n">
+        <v>0.18731001</v>
+      </c>
+      <c r="CD72" t="n">
+        <v>-23252623360</v>
+      </c>
+      <c r="CE72" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="CF72" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="CI72" t="n">
+        <v>0.37491</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>317788</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1934.85</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1932.8</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1937.95</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1934.85</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1932.8</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1937.95</v>
+      </c>
+      <c r="U73" t="n">
+        <v>41</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.021300001</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1730160000</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.5924</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>29.498236</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>26.64253</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>3572577</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3572577</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>5886262</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>6268840</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>6268840</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>7962600407040</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1358.35</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1991.45</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>422.73306</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1873.38</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1694.6937</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.0002532496</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>7960018812928</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.17159</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>3509357129</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>4142010112</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.15783</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>4142010112</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>737.96545</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0.29150152</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1730160000</v>
+      </c>
+      <c r="BE73" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF73" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG73" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="BH73" t="inlineStr">
+        <is>
+          <t>INFOSYS LIMITED</t>
+        </is>
+      </c>
+      <c r="BI73" t="inlineStr">
+        <is>
+          <t>Infosys Limited</t>
+        </is>
+      </c>
+      <c r="BJ73" t="n">
+        <v>1922.4</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>2330</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1530</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>2110</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.14634</v>
+      </c>
+      <c r="BP73" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ73" t="n">
+        <v>41</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>3488000000</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>4337999872</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>1051000000</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>18836000768</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>0.15253</v>
+      </c>
+      <c r="CB73" t="n">
+        <v>0.31404</v>
+      </c>
+      <c r="CC73" t="n">
+        <v>2286749952</v>
+      </c>
+      <c r="CD73" t="n">
+        <v>3671000064</v>
+      </c>
+      <c r="CE73" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="CF73" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="CG73" t="n">
+        <v>0.29518</v>
+      </c>
+      <c r="CH73" t="n">
+        <v>0.23030001</v>
+      </c>
+      <c r="CI73" t="n">
+        <v>0.21945</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>232296</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G74" t="n">
+        <v>8</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>865.45</v>
+      </c>
+      <c r="N74" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="O74" t="n">
+        <v>857</v>
+      </c>
+      <c r="P74" t="n">
+        <v>875.45</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>865.45</v>
+      </c>
+      <c r="R74" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="S74" t="n">
+        <v>857</v>
+      </c>
+      <c r="T74" t="n">
+        <v>875.45</v>
+      </c>
+      <c r="U74" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1716336000</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.1709</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>10.775421</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>10.36975</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>14518659</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>14518659</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>14648788</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>12385570</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>12385570</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>7707748204544</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>600.65</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>912</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2.2937837</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>816.803</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>811.4935</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.015829915</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>10402266087424</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.21295</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>3749854196</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>8924619776</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.58242</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0.27388</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>8943219712</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>518.846</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.6645595</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>82.67</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0.40602362</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1716336000</v>
+      </c>
+      <c r="BE74" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF74" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG74" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="BH74" t="inlineStr">
+        <is>
+          <t>STATE BANK OF INDIA</t>
+        </is>
+      </c>
+      <c r="BI74" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="BJ74" t="n">
+        <v>863.65</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1102</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>690</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>957.87805</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>990</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>1.85366</v>
+      </c>
+      <c r="BP74" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ74" t="n">
+        <v>41</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>3549721001984</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>397.745</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>6066625052672</v>
+      </c>
+      <c r="BX74" t="n">
+        <v>3360276873216</v>
+      </c>
+      <c r="BZ74" t="n">
+        <v>376.517</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>0.01121</v>
+      </c>
+      <c r="CB74" t="n">
+        <v>0.16746001</v>
+      </c>
+      <c r="CD74" t="n">
+        <v>-4326515802112</v>
+      </c>
+      <c r="CE74" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="CF74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CI74" t="n">
+        <v>0.32476002</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>37312</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6</v>
+      </c>
+      <c r="K75" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="N75" t="n">
+        <v>470</v>
+      </c>
+      <c r="O75" t="n">
+        <v>467.7</v>
+      </c>
+      <c r="P75" t="n">
+        <v>474.95</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>470</v>
+      </c>
+      <c r="S75" t="n">
+        <v>467.7</v>
+      </c>
+      <c r="T75" t="n">
+        <v>474.95</v>
+      </c>
+      <c r="U75" t="n">
+        <v>15</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1717459200</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.8373999600000001</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>28.658758</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>24.8055</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>7549627</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>7549627</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>11628875</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>12536086</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>12536086</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>5894463029248</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>399.35</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>7.8451347</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>483.81</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>462.1195</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.01604278</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>5713022156800</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.27337998</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>9137953176</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>12510799872</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.28409</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0.46497002</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>12633900032</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>60.148</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>7.833178</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0.041330576</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1717459200</v>
+      </c>
+      <c r="BE75" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF75" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG75" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="BH75" t="inlineStr">
+        <is>
+          <t>ITC LTD</t>
+        </is>
+      </c>
+      <c r="BI75" t="inlineStr">
+        <is>
+          <t>ITC Limited</t>
+        </is>
+      </c>
+      <c r="BJ75" t="n">
+        <v>471.15</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>595</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>420</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>540.9143</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>540</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BP75" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ75" t="n">
+        <v>35</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>190998691840</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>15.263</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>264712994816</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>3043399936</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>751352676352</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="BZ75" t="n">
+        <v>60.164</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CB75" t="n">
+        <v>0.28645</v>
+      </c>
+      <c r="CC75" t="n">
+        <v>96529309696</v>
+      </c>
+      <c r="CD75" t="n">
+        <v>161626603520</v>
+      </c>
+      <c r="CE75" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="CF75" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="CG75" t="n">
+        <v>0.58748</v>
+      </c>
+      <c r="CH75" t="n">
+        <v>0.35232</v>
+      </c>
+      <c r="CI75" t="n">
+        <v>0.301</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>19427</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2494.6</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2495</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2475</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2495.8</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2494.6</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2495</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2475</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2495.8</v>
+      </c>
+      <c r="U76" t="n">
+        <v>43</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1730851200</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.9608999499999999</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>56.824528</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>48.712643</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1308005</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>1308005</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1699846</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1798437</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1798437</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>5836731580416</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2172.05</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>3035</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>9.352238</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2594.495</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2541.5217</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>43</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.017237231</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>5724185296896</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.16452</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>873352575</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2349590016</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.62259</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0.18566</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>2349920000</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>216.156</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>11.490775</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>-0.007928431</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1730851200</v>
+      </c>
+      <c r="BE76" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF76" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG76" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="BH76" t="inlineStr">
+        <is>
+          <t>HINDUSTAN UNILEVER LTD.</t>
+        </is>
+      </c>
+      <c r="BI76" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Limited</t>
+        </is>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2483.8</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2057</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2863.6924</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>2870</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="BP76" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ76" t="n">
+        <v>39</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>128999997440</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>54.916</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>142339997696</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>16510000128</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>624099983360</v>
+      </c>
+      <c r="BY76" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="BZ76" t="n">
+        <v>265.67</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>0.10564999</v>
+      </c>
+      <c r="CB76" t="n">
+        <v>0.20233999</v>
+      </c>
+      <c r="CC76" t="n">
+        <v>74808745984</v>
+      </c>
+      <c r="CD76" t="n">
+        <v>117009997824</v>
+      </c>
+      <c r="CE76" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="CF76" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="CG76" t="n">
+        <v>0.51583</v>
+      </c>
+      <c r="CH76" t="n">
+        <v>0.22806999</v>
+      </c>
+      <c r="CI76" t="n">
+        <v>0.21694</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Insurance - Life</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>98661</v>
+      </c>
+      <c r="K77" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>976.9</v>
+      </c>
+      <c r="N77" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="O77" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="P77" t="n">
+        <v>992.95</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>976.9</v>
+      </c>
+      <c r="R77" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="S77" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="T77" t="n">
+        <v>992.95</v>
+      </c>
+      <c r="U77" t="n">
+        <v>13</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.1523</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>14.97031</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>13.836587</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1328572</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>1328572</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1278975</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>2018100</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>2018100</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>6219371118592</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>746.3</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1222</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0.7168855</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>937.013</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>997.0507</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>5310828249088</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.05431</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>221374920</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>6325000192</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>6325320192</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>130.825</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>7.5157657</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>60.52</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0.27537453</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="BE77" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF77" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG77" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="BH77" t="inlineStr">
+        <is>
+          <t>LIFE INSURA CORP OF INDIA</t>
+        </is>
+      </c>
+      <c r="BI77" t="inlineStr">
+        <is>
+          <t>Life Insurance Corporation of India</t>
+        </is>
+      </c>
+      <c r="BJ77" t="n">
+        <v>983.25</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1385</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>870</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>1162.3889</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1196.5</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="BP77" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ77" t="n">
+        <v>18</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>437919514624</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>69.236</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>515563913216</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>11200000</v>
+      </c>
+      <c r="BX77" t="n">
+        <v>8675542958080</v>
+      </c>
+      <c r="BY77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BZ77" t="n">
+        <v>1254.09</v>
+      </c>
+      <c r="CE77" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="CF77" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="CG77" t="n">
+        <v>0.10604999</v>
+      </c>
+      <c r="CH77" t="n">
+        <v>0.05943</v>
+      </c>
+      <c r="CI77" t="n">
+        <v>0.06021</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>HDFC.NS</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>86400</v>
+      </c>
+      <c r="BF78" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="BG78" t="inlineStr">
+        <is>
+          <t>HDFC.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1924</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1926</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1915.3</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1924</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1926</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1915.3</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="U79" t="n">
+        <v>48</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1729555200</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>31.056372</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>27.420788</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2250378</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>2250378</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2576384</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>3118916</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>3118916</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>5208056266752</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>381.43082</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1841.927</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1619.4187</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.00033523908</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>5205512945664</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.14677</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1009674174</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>2708720128</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.61319</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0.25531998</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>2708720128</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>633.5090300000001</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0.3980223</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1729555200</v>
+      </c>
+      <c r="BE79" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF79" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG79" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="BH79" t="inlineStr">
+        <is>
+          <t>HCL TECHNOLOGIES LTD</t>
+        </is>
+      </c>
+      <c r="BI79" t="inlineStr">
+        <is>
+          <t>HCL Technologies Limited</t>
+        </is>
+      </c>
+      <c r="BJ79" t="n">
+        <v>1922.7</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2300</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1449</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>1879.7382</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1920</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>2.57143</v>
+      </c>
+      <c r="BP79" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BQ79" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>3228000000</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="BT79" t="n">
+        <v>2814000128</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>690000000</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>2.435</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>2.736</v>
+      </c>
+      <c r="BX79" t="n">
+        <v>13653999616</v>
+      </c>
+      <c r="BY79" t="n">
+        <v>8.393000000000001</v>
+      </c>
+      <c r="BZ79" t="n">
+        <v>5.039</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>0.13455</v>
+      </c>
+      <c r="CB79" t="n">
+        <v>0.24864</v>
+      </c>
+      <c r="CC79" t="n">
+        <v>1906249984</v>
+      </c>
+      <c r="CD79" t="n">
+        <v>2520999936</v>
+      </c>
+      <c r="CE79" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="CF79" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="CG79" t="n">
+        <v>0.35294</v>
+      </c>
+      <c r="CH79" t="n">
+        <v>0.20608999</v>
+      </c>
+      <c r="CI79" t="n">
+        <v>0.18577999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>54303</v>
+      </c>
+      <c r="F80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>7</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>7</v>
+      </c>
+      <c r="K80" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3831.55</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3832</v>
+      </c>
+      <c r="O80" t="n">
+        <v>3800</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3883.95</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3831.55</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3832</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3800</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3883.95</v>
+      </c>
+      <c r="U80" t="n">
+        <v>28</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.0072000003</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1718841600</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.28530002</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>39.371754</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>27.620617</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1856437</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>1856437</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2191828</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>2262870</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2262870</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>5317215125504</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3175.05</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>3919.9</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>2.190856</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>3579.615</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>3605.8923</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.0073077474</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>6192317333504</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.05573</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1139546784</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1375129984</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>0.16354999</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.48009</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1376579968</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>648.865</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>5.959175</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>104.42</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0.14203441</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1718841600</v>
+      </c>
+      <c r="BE80" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF80" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG80" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="BH80" t="inlineStr">
+        <is>
+          <t>LARSEN &amp; TOUBRO LTD.</t>
+        </is>
+      </c>
+      <c r="BI80" t="inlineStr">
+        <is>
+          <t>Larsen &amp; Toubro Limited</t>
+        </is>
+      </c>
+      <c r="BJ80" t="n">
+        <v>3866.7</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>4550</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>2946</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>4037.182</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>4100</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>1.57576</v>
+      </c>
+      <c r="BP80" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ80" t="n">
+        <v>33</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>554390978560</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>403.144</v>
+      </c>
+      <c r="BT80" t="n">
+        <v>282901610496</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>1261834862592</v>
+      </c>
+      <c r="BV80" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="BW80" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>2427003600896</v>
+      </c>
+      <c r="BY80" t="n">
+        <v>119.062</v>
+      </c>
+      <c r="BZ80" t="n">
+        <v>1765.484</v>
+      </c>
+      <c r="CA80" t="n">
+        <v>0.045679998</v>
+      </c>
+      <c r="CB80" t="n">
+        <v>0.16102</v>
+      </c>
+      <c r="CC80" t="n">
+        <v>175528574976</v>
+      </c>
+      <c r="CD80" t="n">
+        <v>143537602560</v>
+      </c>
+      <c r="CE80" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CF80" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="CG80" t="n">
+        <v>0.36333</v>
+      </c>
+      <c r="CH80" t="n">
+        <v>0.116560005</v>
+      </c>
+      <c r="CI80" t="n">
+        <v>0.10278</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>43000</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1801</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1801</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="U81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.2928</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>39.21882</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>32.61039</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1901203</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>4330430660608</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1208.55</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1960.35</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>8.607882</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1839.705</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1675.1412</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>4147643416576</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.21972999</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1035114634</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.55097</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0.26382</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>288.721</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>6.25119</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0.4538827</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BE81" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF81" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG81" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="BH81" t="inlineStr">
+        <is>
+          <t>SUN PHARMACEUTICAL IND L</t>
+        </is>
+      </c>
+      <c r="BI81" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Limited</t>
+        </is>
+      </c>
+      <c r="BJ81" t="n">
+        <v>1804.85</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>2450</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2047.1082</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>2094</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>1.75676</v>
+      </c>
+      <c r="BP81" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ81" t="n">
+        <v>37</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>201221898240</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>84.059</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>138017406976</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>25719500800</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>503077404672</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>3.707</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>209.894</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>0.08541000999999999</v>
+      </c>
+      <c r="CB81" t="n">
+        <v>0.16771</v>
+      </c>
+      <c r="CC81" t="n">
+        <v>77989175296</v>
+      </c>
+      <c r="CD81" t="n">
+        <v>127154700288</v>
+      </c>
+      <c r="CE81" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="CF81" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CG81" t="n">
+        <v>0.7760500299999999</v>
+      </c>
+      <c r="CH81" t="n">
+        <v>0.27435</v>
+      </c>
+      <c r="CI81" t="n">
+        <v>0.23963</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>8</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4</v>
+      </c>
+      <c r="K82" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="O82" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>6935</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="S82" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="T82" t="n">
+        <v>6935</v>
+      </c>
+      <c r="U82" t="n">
+        <v>36</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.14479999</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>27.547754</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>20.147312</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1105976</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>4241877106688</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>6187.8</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>7830</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>12.393681</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>6913.049</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>6954.6475</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.005255168</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>6715976187904</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.44922</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>258677249</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>618489984</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.54955</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>0.25113</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>619225024</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>1403.263</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>4.881694</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>248.67</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>-0.06066984</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="BE82" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF82" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG82" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="BH82" t="inlineStr">
+        <is>
+          <t>BAJAJ FINANCE LIMITED</t>
+        </is>
+      </c>
+      <c r="BI82" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Limited</t>
+        </is>
+      </c>
+      <c r="BJ82" t="n">
+        <v>6850.3</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>5700</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>8012.645</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>8120</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP82" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ82" t="n">
+        <v>31</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>124034998272</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>200.516</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>2581427650560</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>342261301248</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>290.321</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>554.982</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>0.04145</v>
+      </c>
+      <c r="CB82" t="n">
+        <v>0.20686</v>
+      </c>
+      <c r="CD82" t="n">
+        <v>-729231917056</v>
+      </c>
+      <c r="CE82" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="CG82" t="n">
+        <v>0.93649</v>
+      </c>
+      <c r="CI82" t="n">
+        <v>0.59731996</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>91496</v>
+      </c>
+      <c r="K83" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="N83" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="O83" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="P83" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="R83" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="S83" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="T83" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>8.635382</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>17.781937</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>3725041074176</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>804.3</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0.83946526</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>710.0359999999999</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>3581168058368</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.07609</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>2262900518</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>508503008</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0.09694</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>0.17828</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4901369856</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>221.588</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>3.4297886</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0.5886122</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="BE83" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF83" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG83" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="BH83" t="inlineStr">
+        <is>
+          <t>TATA MOTORS DVR  A  ORD</t>
+        </is>
+      </c>
+      <c r="BI83" t="inlineStr">
+        <is>
+          <t>Tata Motors Limited</t>
+        </is>
+      </c>
+      <c r="BJ83" t="n">
+        <v>760</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>203</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>203</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>203</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>203</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP83" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BQ83" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>592166387712</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>154.522</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>511051988992</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>1120443695104</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>4437397471232</v>
+      </c>
+      <c r="BY83" t="n">
+        <v>117.15</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>1157.912</v>
+      </c>
+      <c r="CF83" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="CG83" t="n">
+        <v>0.44472998</v>
+      </c>
+      <c r="CH83" t="n">
+        <v>0.11517</v>
+      </c>
+      <c r="CI83" t="n">
+        <v>0.09727000399999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>20074</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>10</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="N84" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="O84" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="P84" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="R84" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="S84" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="T84" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="U84" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.44419998</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>18.765871</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>14.450799</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>15840758</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>3582919442432</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>280.85</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>448.45</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.9508511</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>398.172</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>380.302</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.02776649</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>5970720718848</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.120179996</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>4494113853</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>9696669696</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.5267100300000001</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0.36269</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>9789920256</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>173.535</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>2.1292534</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0.28611207</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="BE84" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF84" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG84" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="BH84" t="inlineStr">
+        <is>
+          <t>NTPC LTD</t>
+        </is>
+      </c>
+      <c r="BI84" t="inlineStr">
+        <is>
+          <t>NTPC Limited</t>
+        </is>
+      </c>
+      <c r="BJ84" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>500</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>280</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>446.2</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>460</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>1.76923</v>
+      </c>
+      <c r="BP84" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ84" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>78724300800</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>8.119</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>502551609344</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>2420094795776</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>1836593053696</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>139.959</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>189.407</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>0.04476</v>
+      </c>
+      <c r="CB84" t="n">
+        <v>0.13656001</v>
+      </c>
+      <c r="CC84" t="n">
+        <v>-149665693696</v>
+      </c>
+      <c r="CD84" t="n">
+        <v>470758195200</v>
+      </c>
+      <c r="CE84" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="CG84" t="n">
+        <v>0.42235002</v>
+      </c>
+      <c r="CH84" t="n">
+        <v>0.27363002</v>
+      </c>
+      <c r="CI84" t="n">
+        <v>0.16645001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>104633</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1160</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1160</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>13.19245</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>11.281429</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>9164065</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>3670375661568</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>995.7</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1339.65</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>5.4975696</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1163.149</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1163.6274</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.0008573388</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>5027766730752</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.41832</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>2739610087</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>3094629888</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.02031</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>0.68768</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>3098540032</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>557.7140000000001</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>2.1239383</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>0.060949445</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BE85" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF85" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG85" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="BH85" t="inlineStr">
+        <is>
+          <t>AXIS BANK LIMITED</t>
+        </is>
+      </c>
+      <c r="BI85" t="inlineStr">
+        <is>
+          <t>Axis Bank Limited</t>
+        </is>
+      </c>
+      <c r="BJ85" t="n">
+        <v>1184.55</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1590</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1216</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>1363.0714</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1360</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>1.53659</v>
+      </c>
+      <c r="BP85" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ85" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>892193079296</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>288.587</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>2252174524416</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>667636072448</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>216.263</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>0.01918</v>
+      </c>
+      <c r="CB85" t="n">
+        <v>0.17764999</v>
+      </c>
+      <c r="CD85" t="n">
+        <v>-974622818304</v>
+      </c>
+      <c r="CE85" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="CI85" t="n">
+        <v>0.47516</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>18228</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="N86" t="n">
+        <v>11200</v>
+      </c>
+      <c r="O86" t="n">
+        <v>11121</v>
+      </c>
+      <c r="P86" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="R86" t="n">
+        <v>11200</v>
+      </c>
+      <c r="S86" t="n">
+        <v>11121</v>
+      </c>
+      <c r="T86" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="U86" t="n">
+        <v>125</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.28030002</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>25.380554</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>20.232302</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>545978</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>3558397706240</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>9737.65</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>13680</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>2.4504745</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>11713.743</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>12249.159</v>
+      </c>
+      <c r="AN86" t="inlineStr"/>
+      <c r="AO86" t="inlineStr"/>
+      <c r="AP86" t="n">
+        <v>3523508436992</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.09656000000000001</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>131416090</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>0.30049</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2834.796</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>3.9925098</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>-0.176</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>445.93</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>521.85</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>0.07363105</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>125</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="BE86" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BF86" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BG86" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="BH86" t="inlineStr">
+        <is>
+          <t>MARUTI SUZUKI INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="BI86" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Limited</t>
+        </is>
+      </c>
+      <c r="BJ86" t="n">
+        <v>11317.95</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>16600</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>10800</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>13347.477</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>13415.5</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>1.80952</v>
+      </c>
+      <c r="BP86" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BQ86" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>36439998464</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>115.903</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>199318994944</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>1584000000</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>1452125978624</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>4618.617</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>0.086339995</v>
+      </c>
+      <c r="CB86" t="n">
+        <v>0.18101</v>
+      </c>
+      <c r="CC86" t="n">
+        <v>24424624128</v>
+      </c>
+      <c r="CD86" t="n">
+        <v>138483007488</v>
+      </c>
+      <c r="CE86" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CG86" t="n">
+        <v>0.2915</v>
+      </c>
+      <c r="CH86" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="CI86" t="n">
         <v>0.09648</v>
       </c>
     </row>

--- a/excel/NSE_Stock_Master_DataLake.xlsx
+++ b/excel/NSE_Stock_Master_DataLake.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI86"/>
+  <dimension ref="A1:CJ105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22846,8 +22846,6 @@
       <c r="AM86" t="n">
         <v>12249.159</v>
       </c>
-      <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="n">
         <v>3523508436992</v>
       </c>
@@ -22996,6 +22994,4941 @@
         <v>0.13726</v>
       </c>
       <c r="CI86" t="n">
+        <v>0.09648</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>347362</v>
+      </c>
+      <c r="G87" t="n">
+        <v>9</v>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+      <c r="I87" t="n">
+        <v>7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>9</v>
+      </c>
+      <c r="L87" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1310</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1322.05</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1310</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1323.9</v>
+      </c>
+      <c r="V87" t="n">
+        <v>5</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="X87" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>26.110891</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>20.582012</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>9026387</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>15838421</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>14937177</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>17748419674112</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1203.15</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1608.8</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.9188768</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1327.6465</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1441.7959</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>0.00756401</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>20523773853696</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0.07343</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>6178648529</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>0.49667</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>0.27192</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>13532399616</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>605.573</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>2.1658</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>0.06658268000000001</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>1724025600</v>
+      </c>
+      <c r="BF87" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG87" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH87" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="BI87" t="inlineStr">
+        <is>
+          <t>RELIANCE INDUSTRIES LTD</t>
+        </is>
+      </c>
+      <c r="BJ87" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="BK87" t="n">
+        <v>1311.55</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1603.6389</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.83784</v>
+      </c>
+      <c r="BQ87" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR87" t="n">
+        <v>36</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>2147900063744</v>
+      </c>
+      <c r="BT87" t="n">
+        <v>158.729</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>1562509967360</v>
+      </c>
+      <c r="BV87" t="n">
+        <v>3575249895424</v>
+      </c>
+      <c r="BW87" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="BX87" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="BY87" t="n">
+        <v>9249379844096</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>37.464</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>683.526</v>
+      </c>
+      <c r="CB87" t="n">
+        <v>0.03875</v>
+      </c>
+      <c r="CC87" t="n">
+        <v>0.08479</v>
+      </c>
+      <c r="CD87" t="n">
+        <v>-416127483904</v>
+      </c>
+      <c r="CE87" t="n">
+        <v>1797530058752</v>
+      </c>
+      <c r="CF87" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="CG87" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="CH87" t="n">
+        <v>0.34339002</v>
+      </c>
+      <c r="CI87" t="n">
+        <v>0.16893</v>
+      </c>
+      <c r="CJ87" t="n">
+        <v>0.11306</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>612724</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="O88" t="n">
+        <v>4453</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4465</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4464.05</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4453</v>
+      </c>
+      <c r="T88" t="n">
+        <v>4412.75</v>
+      </c>
+      <c r="U88" t="n">
+        <v>4465</v>
+      </c>
+      <c r="V88" t="n">
+        <v>40</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.42810002</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>34.01301</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>28.708265</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1842037</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>2325120</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>2482112</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>16084219461632</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>3563</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>4592.25</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>6.467526</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>4170.453</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>4102.5327</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0.012768675</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>15705927843840</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.19076</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1002644413</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>0.7178399600000001</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>0.16514999</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3618089984</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>280.521</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>15.847299</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>154.68</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>0.22031903</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>1729209600</v>
+      </c>
+      <c r="BF88" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG88" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH88" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="BI88" t="inlineStr">
+        <is>
+          <t>TATA CONSULTANCY SERV LT</t>
+        </is>
+      </c>
+      <c r="BJ88" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Limited</t>
+        </is>
+      </c>
+      <c r="BK88" t="n">
+        <v>4445.5</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>5710</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>4508.0454</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>2.30233</v>
+      </c>
+      <c r="BQ88" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR88" t="n">
+        <v>44</v>
+      </c>
+      <c r="BS88" t="n">
+        <v>477630005248</v>
+      </c>
+      <c r="BT88" t="n">
+        <v>132.012</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>651870011392</v>
+      </c>
+      <c r="BV88" t="n">
+        <v>90469998592</v>
+      </c>
+      <c r="BW88" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="BX88" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="BY88" t="n">
+        <v>2486920019968</v>
+      </c>
+      <c r="BZ88" t="n">
+        <v>8.836</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>685.788</v>
+      </c>
+      <c r="CB88" t="n">
+        <v>0.24511999</v>
+      </c>
+      <c r="CC88" t="n">
+        <v>0.46772</v>
+      </c>
+      <c r="CD88" t="n">
+        <v>306369986560</v>
+      </c>
+      <c r="CE88" t="n">
+        <v>443359985664</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="CG88" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CH88" t="n">
+        <v>0.39264</v>
+      </c>
+      <c r="CI88" t="n">
+        <v>0.26212</v>
+      </c>
+      <c r="CJ88" t="n">
+        <v>0.24067</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>206758</v>
+      </c>
+      <c r="L89" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1857</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1844</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1857</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1844</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>21.008038</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>16.689299</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>8890942</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>18711555</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>35771790</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>14187713527808</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1363.55</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1879.95</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>5.1385007</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1733.471</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1614.3867</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>18288729915392</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.25056</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>7578068585</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>7644859904</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>0.01671</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>0.51792</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>7685640192</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>632.437</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>2.9344423</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>88.34</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>96.36</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>0.12407637</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>1715299200</v>
+      </c>
+      <c r="BF89" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG89" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH89" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="BI89" t="inlineStr">
+        <is>
+          <t>HDFC BANK LTD</t>
+        </is>
+      </c>
+      <c r="BJ89" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="BK89" t="n">
+        <v>1855.85</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1948.5775</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="BQ89" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BR89" t="n">
+        <v>40</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>2663853850624</v>
+      </c>
+      <c r="BT89" t="n">
+        <v>349.683</v>
+      </c>
+      <c r="BV89" t="n">
+        <v>6660388552704</v>
+      </c>
+      <c r="BY89" t="n">
+        <v>2761061040128</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>363.255</v>
+      </c>
+      <c r="CB89" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="CC89" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="CE89" t="n">
+        <v>-1467762343936</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CG89" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CJ89" t="n">
+        <v>0.32936</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>24893</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1618</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1615.35</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1618</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1594.8</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1624.65</v>
+      </c>
+      <c r="V90" t="n">
+        <v>8</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.3868</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>77.52789</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>33.387047</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>4296188</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>5772020</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>7497359</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>9557012119552</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>960</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1779</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>6.1468463</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1625.3</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1455.7292</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0.004952487</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>11607764631552</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2563438641</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>5691039744</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>0.55272996</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>0.31295002</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>5981170176</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>150.527</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>10.61504</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>0.5964930000000001</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>1722988800</v>
+      </c>
+      <c r="BF90" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG90" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH90" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="BI90" t="inlineStr">
+        <is>
+          <t>BHARTI AIRTEL LIMITED</t>
+        </is>
+      </c>
+      <c r="BJ90" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="BK90" t="n">
+        <v>1597.85</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2070</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>1120</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>1836</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.61111</v>
+      </c>
+      <c r="BQ90" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR90" t="n">
+        <v>36</v>
+      </c>
+      <c r="BS90" t="n">
+        <v>125100998656</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>21.621</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>722990989312</v>
+      </c>
+      <c r="BV90" t="n">
+        <v>2255408070656</v>
+      </c>
+      <c r="BW90" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BX90" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="BY90" t="n">
+        <v>1554783010816</v>
+      </c>
+      <c r="BZ90" t="n">
+        <v>204.474</v>
+      </c>
+      <c r="CA90" t="n">
+        <v>270.184</v>
+      </c>
+      <c r="CB90" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="CC90" t="n">
+        <v>0.12929</v>
+      </c>
+      <c r="CD90" t="n">
+        <v>39372623872</v>
+      </c>
+      <c r="CE90" t="n">
+        <v>856934973440</v>
+      </c>
+      <c r="CF90" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="CG90" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CH90" t="n">
+        <v>0.63526</v>
+      </c>
+      <c r="CI90" t="n">
+        <v>0.46501</v>
+      </c>
+      <c r="CJ90" t="n">
+        <v>0.26152</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>187765</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1342.5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1326.7</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1347.1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>10</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>20.080853</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>18.071215</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>8942239</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>13949251</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>14736291</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>9376868859904</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>970.15</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1362.35</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>5.722805</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1272.428</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1189.9993</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>10073656000512</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.28909</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>7019272418</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>7056909824</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0.02172</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>0.5452399999999999</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>7098070016</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>397.441</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>3.3432634</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>0.30641043</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>1723420800</v>
+      </c>
+      <c r="BF91" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG91" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH91" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="BI91" t="inlineStr">
+        <is>
+          <t>ICICI BANK LTD.</t>
+        </is>
+      </c>
+      <c r="BJ91" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="BK91" t="n">
+        <v>1328.75</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1463.475</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>1458</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="BQ91" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
+      <c r="BR91" t="n">
+        <v>40</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>1643846303744</v>
+      </c>
+      <c r="BT91" t="n">
+        <v>233.261</v>
+      </c>
+      <c r="BV91" t="n">
+        <v>2197605449728</v>
+      </c>
+      <c r="BY91" t="n">
+        <v>1638509182976</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>233.246</v>
+      </c>
+      <c r="CB91" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="CC91" t="n">
+        <v>0.18731001</v>
+      </c>
+      <c r="CE91" t="n">
+        <v>-23252623360</v>
+      </c>
+      <c r="CF91" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="CG91" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="CJ91" t="n">
+        <v>0.37491</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>317788</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>4</v>
+      </c>
+      <c r="L92" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1934.85</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1932.8</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1937.95</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1934.85</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1932.8</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1912.4</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1937.95</v>
+      </c>
+      <c r="V92" t="n">
+        <v>41</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.021300001</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1730160000</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.5924</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>29.498236</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>26.64253</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3572577</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>3572577</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>5886262</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>6268840</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>6268840</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>7962600407040</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1358.35</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1991.45</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>422.73306</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1873.38</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1694.6937</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.0002532496</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>7960018812928</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.17159</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>3509357129</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>4142010112</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>0.15783</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>4142010112</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>737.96545</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0.29150152</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>21</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>1730160000</v>
+      </c>
+      <c r="BF92" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG92" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH92" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="BI92" t="inlineStr">
+        <is>
+          <t>INFOSYS LIMITED</t>
+        </is>
+      </c>
+      <c r="BJ92" t="inlineStr">
+        <is>
+          <t>Infosys Limited</t>
+        </is>
+      </c>
+      <c r="BK92" t="n">
+        <v>1922.4</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2330</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>1530</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>2110</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>2.14634</v>
+      </c>
+      <c r="BQ92" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR92" t="n">
+        <v>41</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>3488000000</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>4337999872</v>
+      </c>
+      <c r="BV92" t="n">
+        <v>1051000000</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>18836000768</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>9.696999999999999</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="CB92" t="n">
+        <v>0.15253</v>
+      </c>
+      <c r="CC92" t="n">
+        <v>0.31404</v>
+      </c>
+      <c r="CD92" t="n">
+        <v>2286749952</v>
+      </c>
+      <c r="CE92" t="n">
+        <v>3671000064</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="CG92" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="CH92" t="n">
+        <v>0.29518</v>
+      </c>
+      <c r="CI92" t="n">
+        <v>0.23030001</v>
+      </c>
+      <c r="CJ92" t="n">
+        <v>0.21945</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>232296</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>5</v>
+      </c>
+      <c r="L93" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>865.45</v>
+      </c>
+      <c r="O93" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="P93" t="n">
+        <v>857</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>875.45</v>
+      </c>
+      <c r="R93" t="n">
+        <v>865.45</v>
+      </c>
+      <c r="S93" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="T93" t="n">
+        <v>857</v>
+      </c>
+      <c r="U93" t="n">
+        <v>875.45</v>
+      </c>
+      <c r="V93" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1716336000</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.1709</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>10.775421</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>10.36975</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>14518659</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>14518659</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>14648788</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>12385570</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>12385570</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>7707748204544</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>600.65</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>912</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>2.2937837</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>816.803</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>811.4935</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0.015829915</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>10402266087424</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.21295</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>3749854196</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>8924619776</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0.58242</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>0.27388</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>8943219712</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>518.846</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>1.6645595</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>82.67</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0.40602362</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>1716336000</v>
+      </c>
+      <c r="BF93" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG93" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH93" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="BI93" t="inlineStr">
+        <is>
+          <t>STATE BANK OF INDIA</t>
+        </is>
+      </c>
+      <c r="BJ93" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="BK93" t="n">
+        <v>863.65</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1102</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>690</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>957.87805</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>990</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.85366</v>
+      </c>
+      <c r="BQ93" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR93" t="n">
+        <v>41</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>3549721001984</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>397.745</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>6066625052672</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>3360276873216</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>376.517</v>
+      </c>
+      <c r="CB93" t="n">
+        <v>0.01121</v>
+      </c>
+      <c r="CC93" t="n">
+        <v>0.16746001</v>
+      </c>
+      <c r="CE93" t="n">
+        <v>-4326515802112</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="CG93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>0.32476002</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>8</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>37312</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+      <c r="I94" t="n">
+        <v>8</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>6</v>
+      </c>
+      <c r="L94" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="O94" t="n">
+        <v>470</v>
+      </c>
+      <c r="P94" t="n">
+        <v>467.7</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>474.95</v>
+      </c>
+      <c r="R94" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>470</v>
+      </c>
+      <c r="T94" t="n">
+        <v>467.7</v>
+      </c>
+      <c r="U94" t="n">
+        <v>474.95</v>
+      </c>
+      <c r="V94" t="n">
+        <v>15</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1717459200</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.8373999600000001</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>28.658758</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>24.8055</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>7549627</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>7549627</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>11628875</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>12536086</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>12536086</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>5894463029248</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>399.35</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>7.8451347</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>483.81</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>462.1195</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0.01604278</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>5713022156800</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.27337998</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>9137953176</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>12510799872</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>0.28409</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0.46497002</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>12633900032</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>60.148</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7.833178</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>0.041330576</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>1717459200</v>
+      </c>
+      <c r="BF94" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG94" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH94" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="BI94" t="inlineStr">
+        <is>
+          <t>ITC LTD</t>
+        </is>
+      </c>
+      <c r="BJ94" t="inlineStr">
+        <is>
+          <t>ITC Limited</t>
+        </is>
+      </c>
+      <c r="BK94" t="n">
+        <v>471.15</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>595</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>420</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>540.9143</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>540</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BQ94" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR94" t="n">
+        <v>35</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>190998691840</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>15.263</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>264712994816</v>
+      </c>
+      <c r="BV94" t="n">
+        <v>3043399936</v>
+      </c>
+      <c r="BW94" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>751352676352</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>60.164</v>
+      </c>
+      <c r="CB94" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CC94" t="n">
+        <v>0.28645</v>
+      </c>
+      <c r="CD94" t="n">
+        <v>96529309696</v>
+      </c>
+      <c r="CE94" t="n">
+        <v>161626603520</v>
+      </c>
+      <c r="CF94" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="CG94" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="CH94" t="n">
+        <v>0.58748</v>
+      </c>
+      <c r="CI94" t="n">
+        <v>0.35232</v>
+      </c>
+      <c r="CJ94" t="n">
+        <v>0.301</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>9</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>19427</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>8</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2494.6</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2495</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2475</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2495.8</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2494.6</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2495</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2475</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2495.8</v>
+      </c>
+      <c r="V95" t="n">
+        <v>43</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1730851200</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0.9608999499999999</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>56.824528</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>48.712643</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>1308005</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1308005</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1699846</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1798437</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1798437</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>5836731580416</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2172.05</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>3035</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>9.352238</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2594.495</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>2541.5217</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>43</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0.017237231</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>5724185296896</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.16452</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>873352575</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2349590016</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>0.62259</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>0.18566</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2349920000</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>216.156</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>11.490775</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>-0.007928431</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>19</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>1730851200</v>
+      </c>
+      <c r="BF95" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG95" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH95" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="BI95" t="inlineStr">
+        <is>
+          <t>HINDUSTAN UNILEVER LTD.</t>
+        </is>
+      </c>
+      <c r="BJ95" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Limited</t>
+        </is>
+      </c>
+      <c r="BK95" t="n">
+        <v>2483.8</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2057</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>2863.6924</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2870</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="BQ95" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR95" t="n">
+        <v>39</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>128999997440</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>54.916</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>142339997696</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>16510000128</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="BY95" t="n">
+        <v>624099983360</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>265.67</v>
+      </c>
+      <c r="CB95" t="n">
+        <v>0.10564999</v>
+      </c>
+      <c r="CC95" t="n">
+        <v>0.20233999</v>
+      </c>
+      <c r="CD95" t="n">
+        <v>74808745984</v>
+      </c>
+      <c r="CE95" t="n">
+        <v>117009997824</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="CG95" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="CH95" t="n">
+        <v>0.51583</v>
+      </c>
+      <c r="CI95" t="n">
+        <v>0.22806999</v>
+      </c>
+      <c r="CJ95" t="n">
+        <v>0.21694</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Insurance - Life</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>98661</v>
+      </c>
+      <c r="L96" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>976.9</v>
+      </c>
+      <c r="O96" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="P96" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>992.95</v>
+      </c>
+      <c r="R96" t="n">
+        <v>976.9</v>
+      </c>
+      <c r="S96" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="T96" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="U96" t="n">
+        <v>992.95</v>
+      </c>
+      <c r="V96" t="n">
+        <v>13</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.1523</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>14.97031</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>13.836587</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>1328572</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1328572</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1278975</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>2018100</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>2018100</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>6219371118592</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>746.3</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1222</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0.7168855</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>937.013</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>997.0507</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>5310828249088</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.05431</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>221374920</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>6325000192</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>6325320192</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>130.825</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>7.5157657</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>60.52</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>0.27537453</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>1721347200</v>
+      </c>
+      <c r="BF96" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG96" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH96" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="BI96" t="inlineStr">
+        <is>
+          <t>LIFE INSURA CORP OF INDIA</t>
+        </is>
+      </c>
+      <c r="BJ96" t="inlineStr">
+        <is>
+          <t>Life Insurance Corporation of India</t>
+        </is>
+      </c>
+      <c r="BK96" t="n">
+        <v>983.25</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1385</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>870</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1162.3889</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>1196.5</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="BQ96" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR96" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>437919514624</v>
+      </c>
+      <c r="BT96" t="n">
+        <v>69.236</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>515563913216</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>11200000</v>
+      </c>
+      <c r="BY96" t="n">
+        <v>8675542958080</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>1254.09</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="CG96" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="CH96" t="n">
+        <v>0.10604999</v>
+      </c>
+      <c r="CI96" t="n">
+        <v>0.05943</v>
+      </c>
+      <c r="CJ96" t="n">
+        <v>0.06021</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>11</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>HDFC.NS</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>86400</v>
+      </c>
+      <c r="BG97" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="BH97" t="inlineStr">
+        <is>
+          <t>HDFC.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>12</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1924</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1926</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1915.3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1924</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1926</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1915.3</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="V98" t="n">
+        <v>48</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1729555200</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>31.056372</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>27.420788</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>2250378</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2250378</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>2576384</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>3118916</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>3118916</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>5208056266752</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1939.35</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>381.43082</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1841.927</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1619.4187</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0.00033523908</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>5205512945664</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.14677</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1009674174</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2708720128</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.61319</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>0.25531998</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2708720128</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>633.5090300000001</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>0.3980223</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>1729555200</v>
+      </c>
+      <c r="BF98" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG98" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH98" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="BI98" t="inlineStr">
+        <is>
+          <t>HCL TECHNOLOGIES LTD</t>
+        </is>
+      </c>
+      <c r="BJ98" t="inlineStr">
+        <is>
+          <t>HCL Technologies Limited</t>
+        </is>
+      </c>
+      <c r="BK98" t="n">
+        <v>1922.7</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2300</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>1449</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1879.7382</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>1920</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>2.57143</v>
+      </c>
+      <c r="BQ98" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BR98" t="n">
+        <v>42</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>3228000000</v>
+      </c>
+      <c r="BT98" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>2814000128</v>
+      </c>
+      <c r="BV98" t="n">
+        <v>690000000</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>2.435</v>
+      </c>
+      <c r="BX98" t="n">
+        <v>2.736</v>
+      </c>
+      <c r="BY98" t="n">
+        <v>13653999616</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>8.393000000000001</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>5.039</v>
+      </c>
+      <c r="CB98" t="n">
+        <v>0.13455</v>
+      </c>
+      <c r="CC98" t="n">
+        <v>0.24864</v>
+      </c>
+      <c r="CD98" t="n">
+        <v>1906249984</v>
+      </c>
+      <c r="CE98" t="n">
+        <v>2520999936</v>
+      </c>
+      <c r="CF98" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="CG98" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="CH98" t="n">
+        <v>0.35294</v>
+      </c>
+      <c r="CI98" t="n">
+        <v>0.20608999</v>
+      </c>
+      <c r="CJ98" t="n">
+        <v>0.18577999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>13</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>54303</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>7</v>
+      </c>
+      <c r="L99" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3831.55</v>
+      </c>
+      <c r="O99" t="n">
+        <v>3832</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3800</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3883.95</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3831.55</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3832</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3800</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3883.95</v>
+      </c>
+      <c r="V99" t="n">
+        <v>28</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0.0072000003</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1718841600</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.28530002</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>39.371754</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>27.620617</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>1856437</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1856437</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>2191828</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>2262870</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>2262870</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>5317215125504</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>3175.05</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>3919.9</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>2.190856</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>3579.615</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>3605.8923</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.0073077474</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>6192317333504</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.05573</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1139546784</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1375129984</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>0.16354999</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>0.48009</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>1376579968</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>648.865</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>5.959175</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>104.42</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>0.14203441</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>1718841600</v>
+      </c>
+      <c r="BF99" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG99" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH99" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="BI99" t="inlineStr">
+        <is>
+          <t>LARSEN &amp; TOUBRO LTD.</t>
+        </is>
+      </c>
+      <c r="BJ99" t="inlineStr">
+        <is>
+          <t>Larsen &amp; Toubro Limited</t>
+        </is>
+      </c>
+      <c r="BK99" t="n">
+        <v>3866.7</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>4550</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2946</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>4037.182</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>4100</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.57576</v>
+      </c>
+      <c r="BQ99" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR99" t="n">
+        <v>33</v>
+      </c>
+      <c r="BS99" t="n">
+        <v>554390978560</v>
+      </c>
+      <c r="BT99" t="n">
+        <v>403.144</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>282901610496</v>
+      </c>
+      <c r="BV99" t="n">
+        <v>1261834862592</v>
+      </c>
+      <c r="BW99" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="BX99" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="BY99" t="n">
+        <v>2427003600896</v>
+      </c>
+      <c r="BZ99" t="n">
+        <v>119.062</v>
+      </c>
+      <c r="CA99" t="n">
+        <v>1765.484</v>
+      </c>
+      <c r="CB99" t="n">
+        <v>0.045679998</v>
+      </c>
+      <c r="CC99" t="n">
+        <v>0.16102</v>
+      </c>
+      <c r="CD99" t="n">
+        <v>175528574976</v>
+      </c>
+      <c r="CE99" t="n">
+        <v>143537602560</v>
+      </c>
+      <c r="CF99" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="CG99" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="CH99" t="n">
+        <v>0.36333</v>
+      </c>
+      <c r="CI99" t="n">
+        <v>0.116560005</v>
+      </c>
+      <c r="CJ99" t="n">
+        <v>0.10278</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>14</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>43000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>4</v>
+      </c>
+      <c r="L100" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1801</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1813.45</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1815.85</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1801</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1823.95</v>
+      </c>
+      <c r="V100" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="X100" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0.2928</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>39.21882</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>32.61039</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1590466</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1901203</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>2235418</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>4330430660608</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1208.55</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1960.35</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>8.607882</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1839.705</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1675.1412</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>4147643416576</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.21972999</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1035114634</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>0.55097</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>0.26382</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2399330048</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>288.721</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>6.25119</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0.4538827</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BF100" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG100" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH100" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="BI100" t="inlineStr">
+        <is>
+          <t>SUN PHARMACEUTICAL IND L</t>
+        </is>
+      </c>
+      <c r="BJ100" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Limited</t>
+        </is>
+      </c>
+      <c r="BK100" t="n">
+        <v>1804.85</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2450</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>2047.1082</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2094</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.75676</v>
+      </c>
+      <c r="BQ100" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR100" t="n">
+        <v>37</v>
+      </c>
+      <c r="BS100" t="n">
+        <v>201221898240</v>
+      </c>
+      <c r="BT100" t="n">
+        <v>84.059</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>138017406976</v>
+      </c>
+      <c r="BV100" t="n">
+        <v>25719500800</v>
+      </c>
+      <c r="BW100" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="BX100" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="BY100" t="n">
+        <v>503077404672</v>
+      </c>
+      <c r="BZ100" t="n">
+        <v>3.707</v>
+      </c>
+      <c r="CA100" t="n">
+        <v>209.894</v>
+      </c>
+      <c r="CB100" t="n">
+        <v>0.08541000999999999</v>
+      </c>
+      <c r="CC100" t="n">
+        <v>0.16771</v>
+      </c>
+      <c r="CD100" t="n">
+        <v>77989175296</v>
+      </c>
+      <c r="CE100" t="n">
+        <v>127154700288</v>
+      </c>
+      <c r="CF100" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="CG100" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CH100" t="n">
+        <v>0.7760500299999999</v>
+      </c>
+      <c r="CI100" t="n">
+        <v>0.27435</v>
+      </c>
+      <c r="CJ100" t="n">
+        <v>0.23963</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>15</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>8</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>8</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4</v>
+      </c>
+      <c r="L101" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="O101" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="P101" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>6935</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6850.4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>6875.95</v>
+      </c>
+      <c r="T101" t="n">
+        <v>6778.65</v>
+      </c>
+      <c r="U101" t="n">
+        <v>6935</v>
+      </c>
+      <c r="V101" t="n">
+        <v>36</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="X101" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.14479999</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>27.547754</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>20.147312</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>832896</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1105976</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1027037</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>4241877106688</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>6187.8</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>7830</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>12.393681</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>6913.049</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>6954.6475</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0.005255168</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>6715976187904</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.44922</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>258677249</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>618489984</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>0.54955</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>0.25113</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>619225024</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1403.263</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>4.881694</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>248.67</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>-0.06066984</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>1718928000</v>
+      </c>
+      <c r="BF101" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG101" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH101" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="BI101" t="inlineStr">
+        <is>
+          <t>BAJAJ FINANCE LIMITED</t>
+        </is>
+      </c>
+      <c r="BJ101" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Limited</t>
+        </is>
+      </c>
+      <c r="BK101" t="n">
+        <v>6850.3</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>5700</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>8012.645</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>8120</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BQ101" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR101" t="n">
+        <v>31</v>
+      </c>
+      <c r="BS101" t="n">
+        <v>124034998272</v>
+      </c>
+      <c r="BT101" t="n">
+        <v>200.516</v>
+      </c>
+      <c r="BV101" t="n">
+        <v>2581427650560</v>
+      </c>
+      <c r="BW101" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BX101" t="n">
+        <v>5.378</v>
+      </c>
+      <c r="BY101" t="n">
+        <v>342261301248</v>
+      </c>
+      <c r="BZ101" t="n">
+        <v>290.321</v>
+      </c>
+      <c r="CA101" t="n">
+        <v>554.982</v>
+      </c>
+      <c r="CB101" t="n">
+        <v>0.04145</v>
+      </c>
+      <c r="CC101" t="n">
+        <v>0.20686</v>
+      </c>
+      <c r="CE101" t="n">
+        <v>-729231917056</v>
+      </c>
+      <c r="CF101" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="CG101" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="CH101" t="n">
+        <v>0.93649</v>
+      </c>
+      <c r="CJ101" t="n">
+        <v>0.59731996</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>16</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>91496</v>
+      </c>
+      <c r="L102" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="O102" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="P102" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="R102" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="S102" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="T102" t="n">
+        <v>740.6</v>
+      </c>
+      <c r="U102" t="n">
+        <v>774.45</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="X102" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>8.635382</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>17.781937</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>11048804</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3725041074176</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>804.3</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0.83946526</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>768.65</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>710.0359999999999</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>3581168058368</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.07609</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2262900518</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>508503008</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>0.09694</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0.17828</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>4901369856</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>221.588</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>3.4297886</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0.5886122</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>1718064000</v>
+      </c>
+      <c r="BF102" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG102" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH102" t="inlineStr">
+        <is>
+          <t>TATAMTRDVR.NS</t>
+        </is>
+      </c>
+      <c r="BI102" t="inlineStr">
+        <is>
+          <t>TATA MOTORS DVR  A  ORD</t>
+        </is>
+      </c>
+      <c r="BJ102" t="inlineStr">
+        <is>
+          <t>Tata Motors Limited</t>
+        </is>
+      </c>
+      <c r="BK102" t="n">
+        <v>760</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>203</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>203</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>203</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>203</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ102" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="BR102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS102" t="n">
+        <v>592166387712</v>
+      </c>
+      <c r="BT102" t="n">
+        <v>154.522</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>511051988992</v>
+      </c>
+      <c r="BV102" t="n">
+        <v>1120443695104</v>
+      </c>
+      <c r="BY102" t="n">
+        <v>4437397471232</v>
+      </c>
+      <c r="BZ102" t="n">
+        <v>117.15</v>
+      </c>
+      <c r="CA102" t="n">
+        <v>1157.912</v>
+      </c>
+      <c r="CG102" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="CH102" t="n">
+        <v>0.44472998</v>
+      </c>
+      <c r="CI102" t="n">
+        <v>0.11517</v>
+      </c>
+      <c r="CJ102" t="n">
+        <v>0.09727000399999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>17</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>20074</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>9</v>
+      </c>
+      <c r="L103" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="O103" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="P103" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="S103" t="n">
+        <v>369.45</v>
+      </c>
+      <c r="T103" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="U103" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="X103" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0.44419998</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>18.765871</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>14.450799</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>9733348</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>15840758</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>15220065</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3582919442432</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>280.85</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>448.45</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.9508511</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>398.172</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>380.302</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>0.02776649</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>5970720718848</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.120179996</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>4494113853</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>9696669696</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>0.5267100300000001</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>0.36269</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>9789920256</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>173.535</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>2.1292534</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>0.28611207</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>1730332800</v>
+      </c>
+      <c r="BF103" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG103" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH103" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="BI103" t="inlineStr">
+        <is>
+          <t>NTPC LTD</t>
+        </is>
+      </c>
+      <c r="BJ103" t="inlineStr">
+        <is>
+          <t>NTPC Limited</t>
+        </is>
+      </c>
+      <c r="BK103" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>500</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>280</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>446.2</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>460</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.76923</v>
+      </c>
+      <c r="BQ103" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR103" t="n">
+        <v>25</v>
+      </c>
+      <c r="BS103" t="n">
+        <v>78724300800</v>
+      </c>
+      <c r="BT103" t="n">
+        <v>8.119</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>502551609344</v>
+      </c>
+      <c r="BV103" t="n">
+        <v>2420094795776</v>
+      </c>
+      <c r="BW103" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="BX103" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="BY103" t="n">
+        <v>1836593053696</v>
+      </c>
+      <c r="BZ103" t="n">
+        <v>139.959</v>
+      </c>
+      <c r="CA103" t="n">
+        <v>189.407</v>
+      </c>
+      <c r="CB103" t="n">
+        <v>0.04476</v>
+      </c>
+      <c r="CC103" t="n">
+        <v>0.13656001</v>
+      </c>
+      <c r="CD103" t="n">
+        <v>-149665693696</v>
+      </c>
+      <c r="CE103" t="n">
+        <v>470758195200</v>
+      </c>
+      <c r="CF103" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="CG103" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="CH103" t="n">
+        <v>0.42235002</v>
+      </c>
+      <c r="CI103" t="n">
+        <v>0.27363002</v>
+      </c>
+      <c r="CJ103" t="n">
+        <v>0.16645001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>18</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>104633</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1167.5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1160</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1193.85</v>
+      </c>
+      <c r="V104" t="n">
+        <v>1</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="X104" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>13.19245</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>11.281429</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>7541158</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>9164065</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>9037111</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>3670375661568</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>995.7</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1339.65</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>5.4975696</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1163.149</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1163.6274</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0.0008573388</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>5027766730752</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.41832</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2739610087</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3094629888</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>0.02031</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0.68768</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3098540032</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>557.7140000000001</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>2.1239383</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>0.060949445</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>1720742400</v>
+      </c>
+      <c r="BF104" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG104" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH104" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="BI104" t="inlineStr">
+        <is>
+          <t>AXIS BANK LIMITED</t>
+        </is>
+      </c>
+      <c r="BJ104" t="inlineStr">
+        <is>
+          <t>Axis Bank Limited</t>
+        </is>
+      </c>
+      <c r="BK104" t="n">
+        <v>1184.55</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1590</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>1216</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1363.0714</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>1360</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.53659</v>
+      </c>
+      <c r="BQ104" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR104" t="n">
+        <v>42</v>
+      </c>
+      <c r="BS104" t="n">
+        <v>892193079296</v>
+      </c>
+      <c r="BT104" t="n">
+        <v>288.587</v>
+      </c>
+      <c r="BV104" t="n">
+        <v>2252174524416</v>
+      </c>
+      <c r="BY104" t="n">
+        <v>667636072448</v>
+      </c>
+      <c r="CA104" t="n">
+        <v>216.263</v>
+      </c>
+      <c r="CB104" t="n">
+        <v>0.01918</v>
+      </c>
+      <c r="CC104" t="n">
+        <v>0.17764999</v>
+      </c>
+      <c r="CE104" t="n">
+        <v>-974622818304</v>
+      </c>
+      <c r="CF104" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="CG104" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="CJ104" t="n">
+        <v>0.47516</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>19</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>18228</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>8</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>86400</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="O105" t="n">
+        <v>11200</v>
+      </c>
+      <c r="P105" t="n">
+        <v>11121</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="R105" t="n">
+        <v>11182.25</v>
+      </c>
+      <c r="S105" t="n">
+        <v>11200</v>
+      </c>
+      <c r="T105" t="n">
+        <v>11121</v>
+      </c>
+      <c r="U105" t="n">
+        <v>11375.95</v>
+      </c>
+      <c r="V105" t="n">
+        <v>125</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="X105" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0.28030002</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>25.380554</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>20.232302</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>416984</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>545978</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>455443</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3558397706240</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>9737.65</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>13680</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2.4504745</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>11713.743</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>12249.159</v>
+      </c>
+      <c r="AO105" t="inlineStr"/>
+      <c r="AP105" t="inlineStr"/>
+      <c r="AQ105" t="n">
+        <v>3523508436992</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0.09656000000000001</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>131416090</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>0.30049</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>314403008</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>2834.796</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>3.9925098</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>-0.176</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>445.93</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>521.85</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0.07363105</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>125</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>1722556800</v>
+      </c>
+      <c r="BF105" t="inlineStr">
+        <is>
+          <t>NSI</t>
+        </is>
+      </c>
+      <c r="BG105" t="inlineStr">
+        <is>
+          <t>EQUITY</t>
+        </is>
+      </c>
+      <c r="BH105" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="BI105" t="inlineStr">
+        <is>
+          <t>MARUTI SUZUKI INDIA LTD.</t>
+        </is>
+      </c>
+      <c r="BJ105" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Limited</t>
+        </is>
+      </c>
+      <c r="BK105" t="n">
+        <v>11317.95</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>16600</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>10800</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>13347.477</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>13415.5</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.80952</v>
+      </c>
+      <c r="BQ105" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="BR105" t="n">
+        <v>42</v>
+      </c>
+      <c r="BS105" t="n">
+        <v>36439998464</v>
+      </c>
+      <c r="BT105" t="n">
+        <v>115.903</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>199318994944</v>
+      </c>
+      <c r="BV105" t="n">
+        <v>1584000000</v>
+      </c>
+      <c r="BW105" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="BX105" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="BY105" t="n">
+        <v>1452125978624</v>
+      </c>
+      <c r="BZ105" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="CA105" t="n">
+        <v>4618.617</v>
+      </c>
+      <c r="CB105" t="n">
+        <v>0.086339995</v>
+      </c>
+      <c r="CC105" t="n">
+        <v>0.18101</v>
+      </c>
+      <c r="CD105" t="n">
+        <v>24424624128</v>
+      </c>
+      <c r="CE105" t="n">
+        <v>138483007488</v>
+      </c>
+      <c r="CF105" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="CG105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CH105" t="n">
+        <v>0.2915</v>
+      </c>
+      <c r="CI105" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="CJ105" t="n">
         <v>0.09648</v>
       </c>
     </row>
